--- a/AAII_Financials/Quarterly/ACMTA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ACMTA_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
   <si>
     <t>ACMTA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,125 +665,138 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F8" s="3">
         <v>800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>500</v>
-      </c>
-      <c r="I8" s="3">
-        <v>600</v>
-      </c>
-      <c r="J8" s="3">
-        <v>1000</v>
       </c>
       <c r="K8" s="3">
         <v>600</v>
       </c>
       <c r="L8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M8" s="3">
+        <v>600</v>
+      </c>
+      <c r="N8" s="3">
         <v>800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1100</v>
-      </c>
-      <c r="N8" s="3">
-        <v>1200</v>
-      </c>
-      <c r="O8" s="3">
-        <v>700</v>
       </c>
       <c r="P8" s="3">
         <v>1200</v>
       </c>
       <c r="Q8" s="3">
+        <v>700</v>
+      </c>
+      <c r="R8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S8" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -794,13 +807,13 @@
         <v>100</v>
       </c>
       <c r="F9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G9" s="3">
         <v>100</v>
       </c>
       <c r="H9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I9" s="3">
         <v>100</v>
@@ -809,19 +822,19 @@
         <v>100</v>
       </c>
       <c r="K9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N9" s="3">
         <v>0</v>
       </c>
       <c r="O9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P9" s="3">
         <v>0</v>
@@ -829,55 +842,67 @@
       <c r="Q9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F10" s="3">
         <v>700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>1000</v>
-      </c>
-      <c r="N10" s="3">
-        <v>1200</v>
-      </c>
-      <c r="O10" s="3">
-        <v>700</v>
       </c>
       <c r="P10" s="3">
         <v>1200</v>
       </c>
       <c r="Q10" s="3">
+        <v>700</v>
+      </c>
+      <c r="R10" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S10" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,8 +920,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -942,8 +969,14 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1022,14 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1036,8 +1075,14 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1128,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1150,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>100</v>
+      </c>
+      <c r="F17" s="3">
         <v>600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>-200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>200</v>
+      <c r="D18" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E18" s="3">
-        <v>200</v>
+        <v>1400</v>
       </c>
       <c r="F18" s="3">
         <v>200</v>
       </c>
       <c r="G18" s="3">
+        <v>200</v>
+      </c>
+      <c r="H18" s="3">
+        <v>200</v>
+      </c>
+      <c r="I18" s="3">
         <v>400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>700</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,13 +1277,15 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1259,55 +1326,67 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F21" s="3">
         <v>400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>800</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
         <v>300</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
         <v>600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>400</v>
       </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
         <v>900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1318,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="F22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
@@ -1353,102 +1432,120 @@
       <c r="Q22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>100</v>
+      </c>
+      <c r="S22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F23" s="3">
         <v>300</v>
       </c>
-      <c r="E23" s="3">
-        <v>100</v>
-      </c>
-      <c r="F23" s="3">
-        <v>100</v>
-      </c>
       <c r="G23" s="3">
+        <v>100</v>
+      </c>
+      <c r="H23" s="3">
+        <v>100</v>
+      </c>
+      <c r="I23" s="3">
         <v>300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
-        <v>100</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
+        <v>100</v>
+      </c>
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>400</v>
       </c>
-      <c r="M23" s="3">
-        <v>100</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
+        <v>100</v>
+      </c>
+      <c r="P23" s="3">
         <v>200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
       <c r="L24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
       <c r="N24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-100</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1591,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F26" s="3">
         <v>300</v>
       </c>
-      <c r="E26" s="3">
-        <v>100</v>
-      </c>
-      <c r="F26" s="3">
-        <v>100</v>
-      </c>
       <c r="G26" s="3">
+        <v>100</v>
+      </c>
+      <c r="H26" s="3">
+        <v>100</v>
+      </c>
+      <c r="I26" s="3">
         <v>200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
-        <v>100</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
+        <v>100</v>
+      </c>
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>300</v>
       </c>
-      <c r="M26" s="3">
-        <v>100</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
+        <v>100</v>
+      </c>
+      <c r="P26" s="3">
         <v>200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F27" s="3">
         <v>300</v>
       </c>
-      <c r="E27" s="3">
-        <v>100</v>
-      </c>
-      <c r="F27" s="3">
-        <v>100</v>
-      </c>
       <c r="G27" s="3">
+        <v>100</v>
+      </c>
+      <c r="H27" s="3">
+        <v>100</v>
+      </c>
+      <c r="I27" s="3">
         <v>200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
-        <v>100</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
+        <v>100</v>
+      </c>
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>300</v>
       </c>
-      <c r="M27" s="3">
-        <v>100</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
+        <v>100</v>
+      </c>
+      <c r="P27" s="3">
         <v>200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1649,26 +1770,26 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1682,8 +1803,14 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,13 +1909,19 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1823,55 +1962,67 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F33" s="3">
         <v>300</v>
       </c>
-      <c r="E33" s="3">
-        <v>100</v>
-      </c>
-      <c r="F33" s="3">
-        <v>100</v>
-      </c>
       <c r="G33" s="3">
+        <v>100</v>
+      </c>
+      <c r="H33" s="3">
+        <v>100</v>
+      </c>
+      <c r="I33" s="3">
         <v>200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
-        <v>100</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
+        <v>100</v>
+      </c>
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>300</v>
       </c>
-      <c r="M33" s="3">
-        <v>100</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
+        <v>100</v>
+      </c>
+      <c r="P33" s="3">
         <v>200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +2068,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F35" s="3">
         <v>300</v>
       </c>
-      <c r="E35" s="3">
-        <v>100</v>
-      </c>
-      <c r="F35" s="3">
-        <v>100</v>
-      </c>
       <c r="G35" s="3">
+        <v>100</v>
+      </c>
+      <c r="H35" s="3">
+        <v>100</v>
+      </c>
+      <c r="I35" s="3">
         <v>200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
-        <v>100</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
+        <v>100</v>
+      </c>
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>300</v>
       </c>
-      <c r="M35" s="3">
-        <v>100</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
+        <v>100</v>
+      </c>
+      <c r="P35" s="3">
         <v>200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2225,63 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F41" s="3">
         <v>900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>2800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>3400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>2200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>2100</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R41" s="3">
         <v>1800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,19 +2327,25 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
       </c>
       <c r="F43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
@@ -2169,7 +2354,7 @@
         <v>100</v>
       </c>
       <c r="I43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J43" s="3">
         <v>100</v>
@@ -2186,17 +2371,23 @@
       <c r="N43" s="3">
         <v>100</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>8</v>
+      <c r="O43" s="3">
+        <v>100</v>
       </c>
       <c r="P43" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R43" s="3">
         <v>200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,8 +2433,14 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2289,8 +2486,14 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2336,55 +2539,67 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>43800</v>
+      </c>
+      <c r="E47" s="3">
+        <v>48100</v>
+      </c>
+      <c r="F47" s="3">
         <v>48700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>48400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>50100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>48900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>51700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>50300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>50800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>52100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>54800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>56300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>56200</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R47" s="3">
         <v>61300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>62900</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2392,46 +2607,52 @@
         <v>4400</v>
       </c>
       <c r="E48" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="F48" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="G48" s="3">
         <v>4500</v>
       </c>
       <c r="H48" s="3">
+        <v>4500</v>
+      </c>
+      <c r="I48" s="3">
+        <v>4500</v>
+      </c>
+      <c r="J48" s="3">
         <v>4600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>4600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>4700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>4700</v>
-      </c>
-      <c r="L48" s="3">
-        <v>4800</v>
-      </c>
-      <c r="M48" s="3">
-        <v>4800</v>
       </c>
       <c r="N48" s="3">
         <v>4800</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>8</v>
+      <c r="O48" s="3">
+        <v>4800</v>
       </c>
       <c r="P48" s="3">
+        <v>4800</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R48" s="3">
         <v>5000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2468,17 +2689,23 @@
       <c r="N49" s="3">
         <v>1900</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>8</v>
+      <c r="O49" s="3">
+        <v>1900</v>
       </c>
       <c r="P49" s="3">
         <v>1900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="Q49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R49" s="3">
         <v>1900</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,25 +2804,31 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
+        <v>400</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
       </c>
       <c r="G52" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H52" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="I52" s="3">
         <v>300</v>
@@ -2598,28 +2837,34 @@
         <v>300</v>
       </c>
       <c r="K52" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="L52" s="3">
+        <v>300</v>
+      </c>
+      <c r="M52" s="3">
+        <v>100</v>
+      </c>
+      <c r="N52" s="3">
         <v>700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>900</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R52" s="3">
         <v>300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2910,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>55500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>58500</v>
+      </c>
+      <c r="F54" s="3">
         <v>58700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>58400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>60900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>60900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>62600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>62900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>63600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>66300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>68800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>70200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>70200</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R54" s="3">
         <v>74500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>76500</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,13 +3009,15 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="E57" s="3">
         <v>900</v>
@@ -2765,40 +3026,46 @@
         <v>900</v>
       </c>
       <c r="G57" s="3">
+        <v>900</v>
+      </c>
+      <c r="H57" s="3">
+        <v>900</v>
+      </c>
+      <c r="I57" s="3">
         <v>1200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>900</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R57" s="3">
         <v>1500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2844,55 +3111,67 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E59" s="3">
         <v>500</v>
       </c>
       <c r="F59" s="3">
+        <v>500</v>
+      </c>
+      <c r="G59" s="3">
+        <v>500</v>
+      </c>
+      <c r="H59" s="3">
         <v>600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>600</v>
-      </c>
-      <c r="K59" s="3">
-        <v>500</v>
-      </c>
-      <c r="L59" s="3">
-        <v>500</v>
       </c>
       <c r="M59" s="3">
         <v>500</v>
       </c>
       <c r="N59" s="3">
-        <v>700</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>8</v>
+        <v>500</v>
+      </c>
+      <c r="O59" s="3">
+        <v>500</v>
       </c>
       <c r="P59" s="3">
         <v>700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R59" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2938,70 +3217,82 @@
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1000</v>
+        <v>1700</v>
       </c>
       <c r="E61" s="3">
         <v>1000</v>
       </c>
       <c r="F61" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G61" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H61" s="3">
         <v>4100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>4300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>4400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>4600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>4700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>4900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>7300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>7600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>7900</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>8600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
         <v>400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
+        <v>400</v>
+      </c>
+      <c r="G62" s="3">
         <v>200</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3011,11 +3302,11 @@
       <c r="J62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -3032,8 +3323,14 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3482,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>27400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>27300</v>
+      </c>
+      <c r="F66" s="3">
         <v>27900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>28500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>31600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>32600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>33200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>33800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>34500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>36300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>38500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>39700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>40200</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R66" s="3">
         <v>43600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>44400</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>27600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>29200</v>
+      </c>
+      <c r="F72" s="3">
         <v>28500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>28300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>28200</v>
-      </c>
-      <c r="G72" s="3">
-        <v>28400</v>
-      </c>
-      <c r="H72" s="3">
-        <v>29000</v>
       </c>
       <c r="I72" s="3">
         <v>28400</v>
       </c>
       <c r="J72" s="3">
-        <v>28500</v>
+        <v>29000</v>
       </c>
       <c r="K72" s="3">
         <v>28400</v>
       </c>
       <c r="L72" s="3">
+        <v>28500</v>
+      </c>
+      <c r="M72" s="3">
+        <v>28400</v>
+      </c>
+      <c r="N72" s="3">
         <v>29000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>29400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>29400</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R72" s="3">
         <v>29300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>30400</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3980,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>28100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>31200</v>
+      </c>
+      <c r="F76" s="3">
         <v>30800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>30000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>29200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>28300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>29400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>29100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>29100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>30000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>30300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>30500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>30000</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R76" s="3">
         <v>30900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>32100</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +4086,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F81" s="3">
         <v>300</v>
       </c>
-      <c r="E81" s="3">
-        <v>100</v>
-      </c>
-      <c r="F81" s="3">
-        <v>100</v>
-      </c>
       <c r="G81" s="3">
+        <v>100</v>
+      </c>
+      <c r="H81" s="3">
+        <v>100</v>
+      </c>
+      <c r="I81" s="3">
         <v>200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
-        <v>100</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
+        <v>100</v>
+      </c>
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>300</v>
       </c>
-      <c r="M81" s="3">
-        <v>100</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
+        <v>100</v>
+      </c>
+      <c r="P81" s="3">
         <v>200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4222,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3857,14 +4254,14 @@
         <v>100</v>
       </c>
       <c r="L83" s="3">
+        <v>100</v>
+      </c>
+      <c r="M83" s="3">
+        <v>100</v>
+      </c>
+      <c r="N83" s="3">
         <v>200</v>
       </c>
-      <c r="M83" s="3">
-        <v>100</v>
-      </c>
-      <c r="N83" s="3">
-        <v>100</v>
-      </c>
       <c r="O83" s="3">
         <v>100</v>
       </c>
@@ -3874,8 +4271,14 @@
       <c r="Q83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>100</v>
+      </c>
+      <c r="S83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4536,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>400</v>
+      </c>
+      <c r="F89" s="3">
         <v>-600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-1000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>2400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-1200</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-500</v>
       </c>
       <c r="M89" s="3">
         <v>-300</v>
       </c>
       <c r="N89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P89" s="3">
         <v>-2100</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-400</v>
-      </c>
-      <c r="P89" s="3">
-        <v>600</v>
       </c>
       <c r="Q89" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>600</v>
+      </c>
+      <c r="S89" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,37 +4614,39 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -4220,10 +4661,16 @@
         <v>0</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,8 +4769,14 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4325,46 +4784,52 @@
         <v>500</v>
       </c>
       <c r="E94" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F94" s="3">
+        <v>500</v>
+      </c>
+      <c r="G94" s="3">
         <v>2900</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>2300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-2300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>4000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>1800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>1100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>2500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>1200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,55 +5055,67 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-3100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-2500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-1100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,51 +5161,63 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-1400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>1700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-1800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>1200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-1300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>1600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-1500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ACMTA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ACMTA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
   <si>
     <t>ACMTA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,100 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="D8" s="3">
         <v>1500</v>
       </c>
+      <c r="E8" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="F8" s="3">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="G8" s="3">
         <v>800</v>
@@ -763,40 +767,43 @@
         <v>900</v>
       </c>
       <c r="I8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J8" s="3">
         <v>700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -813,10 +820,10 @@
         <v>100</v>
       </c>
       <c r="H9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J9" s="3">
         <v>100</v>
@@ -828,16 +835,16 @@
         <v>100</v>
       </c>
       <c r="M9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N9" s="3">
         <v>0</v>
       </c>
       <c r="O9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q9" s="3">
         <v>0</v>
@@ -848,61 +855,67 @@
       <c r="S9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="D10" s="3">
         <v>1400</v>
       </c>
+      <c r="E10" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="F10" s="3">
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="G10" s="3">
         <v>700</v>
       </c>
       <c r="H10" s="3">
+        <v>800</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J10" s="3">
+        <v>600</v>
+      </c>
+      <c r="K10" s="3">
+        <v>400</v>
+      </c>
+      <c r="L10" s="3">
+        <v>500</v>
+      </c>
+      <c r="M10" s="3">
         <v>900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="N10" s="3">
         <v>600</v>
       </c>
-      <c r="J10" s="3">
-        <v>400</v>
-      </c>
-      <c r="K10" s="3">
-        <v>500</v>
-      </c>
-      <c r="L10" s="3">
-        <v>900</v>
-      </c>
-      <c r="M10" s="3">
-        <v>600</v>
-      </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>600</v>
+      </c>
+      <c r="E17" s="3">
         <v>800</v>
       </c>
-      <c r="E17" s="3">
-        <v>100</v>
-      </c>
       <c r="F17" s="3">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="G17" s="3">
         <v>600</v>
       </c>
       <c r="H17" s="3">
+        <v>600</v>
+      </c>
+      <c r="I17" s="3">
         <v>700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>-200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>300</v>
-      </c>
-      <c r="O17" s="3">
-        <v>900</v>
       </c>
       <c r="P17" s="3">
         <v>900</v>
       </c>
       <c r="Q17" s="3">
+        <v>900</v>
+      </c>
+      <c r="R17" s="3">
         <v>800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="3">
+      <c r="D18" s="3">
+        <v>900</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="3">
         <v>1400</v>
-      </c>
-      <c r="F18" s="3">
-        <v>200</v>
       </c>
       <c r="G18" s="3">
         <v>200</v>
       </c>
       <c r="H18" s="3">
+        <v>300</v>
+      </c>
+      <c r="I18" s="3">
+        <v>600</v>
+      </c>
+      <c r="J18" s="3">
+        <v>400</v>
+      </c>
+      <c r="K18" s="3">
+        <v>700</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="N18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O18" s="3">
+        <v>500</v>
+      </c>
+      <c r="P18" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>300</v>
+      </c>
+      <c r="R18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S18" s="3">
+        <v>900</v>
+      </c>
+      <c r="T18" s="3">
         <v>400</v>
       </c>
-      <c r="J18" s="3">
-        <v>700</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3">
-        <v>200</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N18" s="3">
-        <v>500</v>
-      </c>
-      <c r="O18" s="3">
-        <v>200</v>
-      </c>
-      <c r="P18" s="3">
-        <v>300</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R18" s="3">
-        <v>900</v>
-      </c>
-      <c r="S18" s="3">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,16 +1312,17 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0</v>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1332,61 +1366,67 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="3">
+      <c r="D21" s="3">
+        <v>900</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="3">
         <v>1400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>300</v>
       </c>
-      <c r="H21" s="3">
-        <v>200</v>
-      </c>
       <c r="I21" s="3">
+        <v>600</v>
+      </c>
+      <c r="J21" s="3">
         <v>500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>800</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
       <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
         <v>300</v>
       </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
       <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
         <v>600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>400</v>
       </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
       <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
         <v>900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1403,7 +1443,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I22" s="3">
         <v>100</v>
@@ -1438,73 +1478,79 @@
       <c r="S22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>300</v>
       </c>
-      <c r="G23" s="3">
-        <v>100</v>
-      </c>
       <c r="H23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I23" s="3">
+        <v>500</v>
+      </c>
+      <c r="J23" s="3">
         <v>300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
-        <v>100</v>
-      </c>
       <c r="M23" s="3">
+        <v>100</v>
+      </c>
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>400</v>
       </c>
-      <c r="O23" s="3">
-        <v>100</v>
-      </c>
       <c r="P23" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q23" s="3">
         <v>200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
         <v>-400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>300</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
@@ -1518,7 +1564,7 @@
         <v>100</v>
       </c>
       <c r="K24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -1527,25 +1573,28 @@
         <v>0</v>
       </c>
       <c r="N24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>-100</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>300</v>
       </c>
-      <c r="G26" s="3">
-        <v>100</v>
-      </c>
       <c r="H26" s="3">
         <v>100</v>
       </c>
       <c r="I26" s="3">
+        <v>400</v>
+      </c>
+      <c r="J26" s="3">
         <v>200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
-        <v>100</v>
-      </c>
       <c r="M26" s="3">
+        <v>100</v>
+      </c>
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>300</v>
       </c>
-      <c r="O26" s="3">
-        <v>100</v>
-      </c>
       <c r="P26" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q26" s="3">
         <v>200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>300</v>
       </c>
-      <c r="G27" s="3">
-        <v>100</v>
-      </c>
       <c r="H27" s="3">
         <v>100</v>
       </c>
       <c r="I27" s="3">
+        <v>400</v>
+      </c>
+      <c r="J27" s="3">
         <v>200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
-        <v>100</v>
-      </c>
       <c r="M27" s="3">
+        <v>100</v>
+      </c>
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>300</v>
       </c>
-      <c r="O27" s="3">
-        <v>100</v>
-      </c>
       <c r="P27" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q27" s="3">
         <v>200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1776,11 +1837,11 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1788,11 +1849,11 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,16 +1982,19 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="3">
-        <v>0</v>
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -1968,61 +2038,67 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>300</v>
       </c>
-      <c r="G33" s="3">
-        <v>100</v>
-      </c>
       <c r="H33" s="3">
         <v>100</v>
       </c>
       <c r="I33" s="3">
+        <v>400</v>
+      </c>
+      <c r="J33" s="3">
         <v>200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
-        <v>100</v>
-      </c>
       <c r="M33" s="3">
+        <v>100</v>
+      </c>
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>300</v>
       </c>
-      <c r="O33" s="3">
-        <v>100</v>
-      </c>
       <c r="P33" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q33" s="3">
         <v>200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>300</v>
       </c>
-      <c r="G35" s="3">
-        <v>100</v>
-      </c>
       <c r="H35" s="3">
         <v>100</v>
       </c>
       <c r="I35" s="3">
+        <v>400</v>
+      </c>
+      <c r="J35" s="3">
         <v>200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
-        <v>100</v>
-      </c>
       <c r="M35" s="3">
+        <v>100</v>
+      </c>
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>300</v>
       </c>
-      <c r="O35" s="3">
-        <v>100</v>
-      </c>
       <c r="P35" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q35" s="3">
         <v>200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,8 +2313,9 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2236,52 +2323,55 @@
         <v>2500</v>
       </c>
       <c r="E41" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F41" s="3">
         <v>1500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2800</v>
-      </c>
-      <c r="J41" s="3">
-        <v>1200</v>
       </c>
       <c r="K41" s="3">
         <v>1200</v>
       </c>
       <c r="L41" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M41" s="3">
         <v>1600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2100</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R41" s="3">
+      <c r="R41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S41" s="3">
         <v>1800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2342,7 +2435,7 @@
         <v>100</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
@@ -2351,13 +2444,13 @@
         <v>0</v>
       </c>
       <c r="H43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K43" s="3">
         <v>100</v>
@@ -2377,17 +2470,20 @@
       <c r="P43" s="3">
         <v>100</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R43" s="3">
+      <c r="Q43" s="3">
+        <v>100</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S43" s="3">
         <v>200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2492,8 +2591,11 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2545,61 +2647,67 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>44200</v>
+      </c>
+      <c r="E47" s="3">
         <v>43800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>48100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>48700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>48400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>50100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>48900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>51700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>50300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>50800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>52100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>54800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>56300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>56200</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R47" s="3">
+      <c r="R47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S47" s="3">
         <v>61300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>62900</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2613,7 +2721,7 @@
         <v>4400</v>
       </c>
       <c r="G48" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="H48" s="3">
         <v>4500</v>
@@ -2622,19 +2730,19 @@
         <v>4500</v>
       </c>
       <c r="J48" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="K48" s="3">
         <v>4600</v>
       </c>
       <c r="L48" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="M48" s="3">
         <v>4700</v>
       </c>
       <c r="N48" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="O48" s="3">
         <v>4800</v>
@@ -2642,17 +2750,20 @@
       <c r="P48" s="3">
         <v>4800</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R48" s="3">
-        <v>5000</v>
+      <c r="Q48" s="3">
+        <v>4800</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S48" s="3">
         <v>5000</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2695,17 +2806,20 @@
       <c r="P49" s="3">
         <v>1900</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R49" s="3">
+      <c r="Q49" s="3">
         <v>1900</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S49" s="3">
         <v>1900</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,19 +2927,22 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="3">
         <v>400</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
+      <c r="F52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -2831,7 +2951,7 @@
         <v>0</v>
       </c>
       <c r="I52" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="J52" s="3">
         <v>300</v>
@@ -2843,28 +2963,31 @@
         <v>300</v>
       </c>
       <c r="M52" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N52" s="3">
+        <v>100</v>
+      </c>
+      <c r="O52" s="3">
         <v>700</v>
-      </c>
-      <c r="O52" s="3">
-        <v>900</v>
       </c>
       <c r="P52" s="3">
         <v>900</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R52" s="3">
+      <c r="Q52" s="3">
+        <v>900</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S52" s="3">
         <v>300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>55900</v>
+      </c>
+      <c r="E54" s="3">
         <v>55500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>58500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>58700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>58400</v>
-      </c>
-      <c r="H54" s="3">
-        <v>60900</v>
       </c>
       <c r="I54" s="3">
         <v>60900</v>
       </c>
       <c r="J54" s="3">
+        <v>60900</v>
+      </c>
+      <c r="K54" s="3">
         <v>62600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>62900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>63600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>66300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>68800</v>
-      </c>
-      <c r="O54" s="3">
-        <v>70200</v>
       </c>
       <c r="P54" s="3">
         <v>70200</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R54" s="3">
+      <c r="Q54" s="3">
+        <v>70200</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S54" s="3">
         <v>74500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>76500</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,16 +3141,17 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>900</v>
+      </c>
+      <c r="E57" s="3">
         <v>600</v>
-      </c>
-      <c r="E57" s="3">
-        <v>900</v>
       </c>
       <c r="F57" s="3">
         <v>900</v>
@@ -3032,40 +3163,43 @@
         <v>900</v>
       </c>
       <c r="I57" s="3">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="J57" s="3">
         <v>1200</v>
       </c>
       <c r="K57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L57" s="3">
         <v>900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>900</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S57" s="3">
         <v>1500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3117,16 +3251,19 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>500</v>
+      </c>
+      <c r="E59" s="3">
         <v>400</v>
-      </c>
-      <c r="E59" s="3">
-        <v>500</v>
       </c>
       <c r="F59" s="3">
         <v>500</v>
@@ -3135,22 +3272,22 @@
         <v>500</v>
       </c>
       <c r="H59" s="3">
+        <v>500</v>
+      </c>
+      <c r="I59" s="3">
         <v>600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>500</v>
-      </c>
-      <c r="K59" s="3">
-        <v>600</v>
       </c>
       <c r="L59" s="3">
         <v>600</v>
       </c>
       <c r="M59" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N59" s="3">
         <v>500</v>
@@ -3159,19 +3296,22 @@
         <v>500</v>
       </c>
       <c r="P59" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q59" s="3">
         <v>700</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R59" s="3">
-        <v>700</v>
+      <c r="R59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S59" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3223,16 +3363,19 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E61" s="3">
         <v>1700</v>
-      </c>
-      <c r="E61" s="3">
-        <v>1000</v>
       </c>
       <c r="F61" s="3">
         <v>1000</v>
@@ -3241,43 +3384,46 @@
         <v>1000</v>
       </c>
       <c r="H61" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I61" s="3">
         <v>4100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>4400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>7600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>7900</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>8600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3285,17 +3431,17 @@
         <v>0</v>
       </c>
       <c r="E62" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F62" s="3">
         <v>400</v>
       </c>
       <c r="G62" s="3">
+        <v>400</v>
+      </c>
+      <c r="H62" s="3">
         <v>200</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3308,8 +3454,8 @@
       <c r="L62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>26800</v>
+      </c>
+      <c r="E66" s="3">
         <v>27400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>27300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>27900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>28500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>31600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>32600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>33200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>33800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>34500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>36300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>38500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>39700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>40200</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S66" s="3">
         <v>43600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>44400</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,8 +3945,11 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3783,52 +3957,55 @@
         <v>27600</v>
       </c>
       <c r="E72" s="3">
+        <v>27600</v>
+      </c>
+      <c r="F72" s="3">
         <v>29200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>28500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>28300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>28200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>28400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>29000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>28400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>28500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>28400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>29000</v>
-      </c>
-      <c r="O72" s="3">
-        <v>29400</v>
       </c>
       <c r="P72" s="3">
         <v>29400</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R72" s="3">
+      <c r="Q72" s="3">
+        <v>29400</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S72" s="3">
         <v>29300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>30400</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>29100</v>
+      </c>
+      <c r="E76" s="3">
         <v>28100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>31200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>30800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>30000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>29200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>28300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>29400</v>
-      </c>
-      <c r="K76" s="3">
-        <v>29100</v>
       </c>
       <c r="L76" s="3">
         <v>29100</v>
       </c>
       <c r="M76" s="3">
+        <v>29100</v>
+      </c>
+      <c r="N76" s="3">
         <v>30000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>30300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>30500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>30000</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R76" s="3">
+      <c r="R76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S76" s="3">
         <v>30900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>32100</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>300</v>
       </c>
-      <c r="G81" s="3">
-        <v>100</v>
-      </c>
       <c r="H81" s="3">
         <v>100</v>
       </c>
       <c r="I81" s="3">
+        <v>400</v>
+      </c>
+      <c r="J81" s="3">
         <v>200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
-        <v>100</v>
-      </c>
       <c r="M81" s="3">
+        <v>100</v>
+      </c>
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>300</v>
       </c>
-      <c r="O81" s="3">
-        <v>100</v>
-      </c>
       <c r="P81" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q81" s="3">
         <v>200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4260,11 +4459,11 @@
         <v>100</v>
       </c>
       <c r="N83" s="3">
+        <v>100</v>
+      </c>
+      <c r="O83" s="3">
         <v>200</v>
       </c>
-      <c r="O83" s="3">
-        <v>100</v>
-      </c>
       <c r="P83" s="3">
         <v>100</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,8 +4756,11 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4551,52 +4768,55 @@
         <v>-300</v>
       </c>
       <c r="E89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F89" s="3">
         <v>400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4630,26 +4851,26 @@
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>8</v>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="I91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>8</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -4667,10 +4888,13 @@
         <v>0</v>
       </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E94" s="3">
         <v>500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>2000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>2900</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>2300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>4000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>1800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>1100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>2500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>1200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E100" s="3">
         <v>700</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>-3100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-900</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-200</v>
       </c>
       <c r="K100" s="3">
         <v>-200</v>
       </c>
       <c r="L100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M100" s="3">
         <v>-300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5416,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>1000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ACMTA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ACMTA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
   <si>
     <t>ACMTA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,145 +665,152 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>900</v>
+      </c>
+      <c r="E8" s="3">
         <v>1500</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="F8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="3">
         <v>1500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -823,10 +830,10 @@
         <v>100</v>
       </c>
       <c r="I9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K9" s="3">
         <v>100</v>
@@ -838,16 +845,16 @@
         <v>100</v>
       </c>
       <c r="N9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O9" s="3">
         <v>0</v>
       </c>
       <c r="P9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R9" s="3">
         <v>0</v>
@@ -858,64 +865,70 @@
       <c r="T9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>800</v>
+      </c>
+      <c r="E10" s="3">
         <v>1400</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="F10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="3">
         <v>1400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1065,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,8 +1124,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1205,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>500</v>
+      </c>
+      <c r="E17" s="3">
         <v>600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>800</v>
       </c>
-      <c r="F17" s="3">
-        <v>100</v>
-      </c>
       <c r="G17" s="3">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="H17" s="3">
         <v>600</v>
       </c>
       <c r="I17" s="3">
+        <v>600</v>
+      </c>
+      <c r="J17" s="3">
         <v>700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>-200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>300</v>
-      </c>
-      <c r="P17" s="3">
-        <v>900</v>
       </c>
       <c r="Q17" s="3">
         <v>900</v>
       </c>
       <c r="R17" s="3">
+        <v>900</v>
+      </c>
+      <c r="S17" s="3">
         <v>800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>400</v>
+      </c>
+      <c r="E18" s="3">
         <v>900</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="F18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="3">
         <v>1400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>700</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,19 +1346,20 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
         <v>0</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1369,64 +1403,70 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>400</v>
+      </c>
+      <c r="E21" s="3">
         <v>900</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="F21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="3">
         <v>1400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>800</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
       <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
         <v>300</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
       <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
         <v>600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>400</v>
       </c>
-      <c r="R21" s="3">
-        <v>0</v>
-      </c>
       <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
         <v>900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1446,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J22" s="3">
         <v>100</v>
@@ -1481,64 +1521,70 @@
       <c r="T22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>300</v>
+      </c>
+      <c r="E23" s="3">
         <v>900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
-        <v>100</v>
-      </c>
       <c r="N23" s="3">
+        <v>100</v>
+      </c>
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>400</v>
       </c>
-      <c r="P23" s="3">
-        <v>100</v>
-      </c>
       <c r="Q23" s="3">
+        <v>100</v>
+      </c>
+      <c r="R23" s="3">
         <v>200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1546,19 +1592,19 @@
         <v>100</v>
       </c>
       <c r="E24" s="3">
+        <v>100</v>
+      </c>
+      <c r="F24" s="3">
         <v>-400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>300</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
       <c r="I24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J24" s="3">
         <v>100</v>
@@ -1567,7 +1613,7 @@
         <v>100</v>
       </c>
       <c r="L24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -1576,25 +1622,28 @@
         <v>0</v>
       </c>
       <c r="O24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>-100</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>300</v>
+      </c>
+      <c r="E26" s="3">
         <v>700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>300</v>
       </c>
-      <c r="H26" s="3">
-        <v>100</v>
-      </c>
       <c r="I26" s="3">
+        <v>100</v>
+      </c>
+      <c r="J26" s="3">
         <v>400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
-        <v>100</v>
-      </c>
       <c r="N26" s="3">
+        <v>100</v>
+      </c>
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>300</v>
       </c>
-      <c r="P26" s="3">
-        <v>100</v>
-      </c>
       <c r="Q26" s="3">
+        <v>100</v>
+      </c>
+      <c r="R26" s="3">
         <v>200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>300</v>
+      </c>
+      <c r="E27" s="3">
         <v>700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>300</v>
       </c>
-      <c r="H27" s="3">
-        <v>100</v>
-      </c>
       <c r="I27" s="3">
+        <v>100</v>
+      </c>
+      <c r="J27" s="3">
         <v>400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
-        <v>100</v>
-      </c>
       <c r="N27" s="3">
+        <v>100</v>
+      </c>
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>300</v>
       </c>
-      <c r="P27" s="3">
-        <v>100</v>
-      </c>
       <c r="Q27" s="3">
+        <v>100</v>
+      </c>
+      <c r="R27" s="3">
         <v>200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1840,11 +1901,11 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -1852,11 +1913,11 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,19 +2052,22 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
         <v>0</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -2041,64 +2111,70 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>300</v>
+      </c>
+      <c r="E33" s="3">
         <v>700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>300</v>
       </c>
-      <c r="H33" s="3">
-        <v>100</v>
-      </c>
       <c r="I33" s="3">
+        <v>100</v>
+      </c>
+      <c r="J33" s="3">
         <v>400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
-        <v>100</v>
-      </c>
       <c r="N33" s="3">
+        <v>100</v>
+      </c>
+      <c r="O33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>300</v>
       </c>
-      <c r="P33" s="3">
-        <v>100</v>
-      </c>
       <c r="Q33" s="3">
+        <v>100</v>
+      </c>
+      <c r="R33" s="3">
         <v>200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>300</v>
+      </c>
+      <c r="E35" s="3">
         <v>700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>300</v>
       </c>
-      <c r="H35" s="3">
-        <v>100</v>
-      </c>
       <c r="I35" s="3">
+        <v>100</v>
+      </c>
+      <c r="J35" s="3">
         <v>400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
-        <v>100</v>
-      </c>
       <c r="N35" s="3">
+        <v>100</v>
+      </c>
+      <c r="O35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>300</v>
       </c>
-      <c r="P35" s="3">
-        <v>100</v>
-      </c>
       <c r="Q35" s="3">
+        <v>100</v>
+      </c>
+      <c r="R35" s="3">
         <v>200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2400,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2500</v>
+        <v>1900</v>
       </c>
       <c r="E41" s="3">
         <v>2500</v>
       </c>
       <c r="F41" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G41" s="3">
         <v>1500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2800</v>
-      </c>
-      <c r="K41" s="3">
-        <v>1200</v>
       </c>
       <c r="L41" s="3">
         <v>1200</v>
       </c>
       <c r="M41" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N41" s="3">
         <v>1600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2100</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S41" s="3">
+      <c r="S41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T41" s="3">
         <v>1800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,19 +2516,22 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E43" s="3">
         <v>100</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
@@ -2447,13 +2540,13 @@
         <v>0</v>
       </c>
       <c r="I43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L43" s="3">
         <v>100</v>
@@ -2473,17 +2566,20 @@
       <c r="Q43" s="3">
         <v>100</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S43" s="3">
+      <c r="R43" s="3">
+        <v>100</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T43" s="3">
         <v>200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2634,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2594,8 +2693,11 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2650,69 +2752,75 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>45400</v>
+      </c>
+      <c r="E47" s="3">
         <v>44200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>43800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>48100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>48700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>48400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>50100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>48900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>51700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>50300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>50800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>52100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>54800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>56300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>56200</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S47" s="3">
+      <c r="S47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T47" s="3">
         <v>61300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>62900</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="E48" s="3">
         <v>4400</v>
@@ -2724,7 +2832,7 @@
         <v>4400</v>
       </c>
       <c r="H48" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="I48" s="3">
         <v>4500</v>
@@ -2733,19 +2841,19 @@
         <v>4500</v>
       </c>
       <c r="K48" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="L48" s="3">
         <v>4600</v>
       </c>
       <c r="M48" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="N48" s="3">
         <v>4700</v>
       </c>
       <c r="O48" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="P48" s="3">
         <v>4800</v>
@@ -2753,17 +2861,20 @@
       <c r="Q48" s="3">
         <v>4800</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S48" s="3">
-        <v>5000</v>
+      <c r="R48" s="3">
+        <v>4800</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T48" s="3">
         <v>5000</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2809,17 +2920,20 @@
       <c r="Q49" s="3">
         <v>1900</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S49" s="3">
+      <c r="R49" s="3">
         <v>1900</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T49" s="3">
         <v>1900</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,22 +3047,25 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="3">
         <v>400</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
+      <c r="G52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
@@ -2954,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="J52" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="K52" s="3">
         <v>300</v>
@@ -2966,28 +3086,31 @@
         <v>300</v>
       </c>
       <c r="N52" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="O52" s="3">
+        <v>100</v>
+      </c>
+      <c r="P52" s="3">
         <v>700</v>
-      </c>
-      <c r="P52" s="3">
-        <v>900</v>
       </c>
       <c r="Q52" s="3">
         <v>900</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S52" s="3">
+      <c r="R52" s="3">
+        <v>900</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T52" s="3">
         <v>300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3165,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>56500</v>
+      </c>
+      <c r="E54" s="3">
         <v>55900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>55500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>58500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>58700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>58400</v>
-      </c>
-      <c r="I54" s="3">
-        <v>60900</v>
       </c>
       <c r="J54" s="3">
         <v>60900</v>
       </c>
       <c r="K54" s="3">
+        <v>60900</v>
+      </c>
+      <c r="L54" s="3">
         <v>62600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>62900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>63600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>66300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>68800</v>
-      </c>
-      <c r="P54" s="3">
-        <v>70200</v>
       </c>
       <c r="Q54" s="3">
         <v>70200</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S54" s="3">
+      <c r="R54" s="3">
+        <v>70200</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T54" s="3">
         <v>74500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>76500</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,19 +3272,20 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E57" s="3">
         <v>900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>600</v>
-      </c>
-      <c r="F57" s="3">
-        <v>900</v>
       </c>
       <c r="G57" s="3">
         <v>900</v>
@@ -3166,40 +3297,43 @@
         <v>900</v>
       </c>
       <c r="J57" s="3">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="K57" s="3">
         <v>1200</v>
       </c>
       <c r="L57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M57" s="3">
         <v>900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>900</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S57" s="3">
+      <c r="S57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T57" s="3">
         <v>1500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3254,8 +3388,11 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3263,10 +3400,10 @@
         <v>500</v>
       </c>
       <c r="E59" s="3">
+        <v>500</v>
+      </c>
+      <c r="F59" s="3">
         <v>400</v>
-      </c>
-      <c r="F59" s="3">
-        <v>500</v>
       </c>
       <c r="G59" s="3">
         <v>500</v>
@@ -3275,22 +3412,22 @@
         <v>500</v>
       </c>
       <c r="I59" s="3">
+        <v>500</v>
+      </c>
+      <c r="J59" s="3">
         <v>600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>500</v>
-      </c>
-      <c r="L59" s="3">
-        <v>600</v>
       </c>
       <c r="M59" s="3">
         <v>600</v>
       </c>
       <c r="N59" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="O59" s="3">
         <v>500</v>
@@ -3299,19 +3436,22 @@
         <v>500</v>
       </c>
       <c r="Q59" s="3">
+        <v>500</v>
+      </c>
+      <c r="R59" s="3">
         <v>700</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S59" s="3">
-        <v>700</v>
+      <c r="S59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T59" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3366,8 +3506,11 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3375,10 +3518,10 @@
         <v>1100</v>
       </c>
       <c r="E61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F61" s="3">
         <v>1700</v>
-      </c>
-      <c r="F61" s="3">
-        <v>1000</v>
       </c>
       <c r="G61" s="3">
         <v>1000</v>
@@ -3387,64 +3530,67 @@
         <v>1000</v>
       </c>
       <c r="I61" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J61" s="3">
         <v>4100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>4300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>7300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>7600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7900</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>8600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
       </c>
       <c r="F62" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G62" s="3">
         <v>400</v>
       </c>
       <c r="H62" s="3">
+        <v>400</v>
+      </c>
+      <c r="I62" s="3">
         <v>200</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3457,8 +3603,8 @@
       <c r="M62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -3478,8 +3624,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,8 +3801,11 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3655,55 +3813,58 @@
         <v>26800</v>
       </c>
       <c r="E66" s="3">
+        <v>26800</v>
+      </c>
+      <c r="F66" s="3">
         <v>27400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>27300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>27900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>28500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>31600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>32600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>33200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>33800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>34500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>36300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>38500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>39700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>40200</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S66" s="3">
+      <c r="S66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T66" s="3">
         <v>43600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>44400</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>27600</v>
+        <v>27900</v>
       </c>
       <c r="E72" s="3">
         <v>27600</v>
       </c>
       <c r="F72" s="3">
+        <v>27600</v>
+      </c>
+      <c r="G72" s="3">
         <v>29200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>28500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>28300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>28200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>28400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>29000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>28400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>28500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>28400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>29000</v>
-      </c>
-      <c r="P72" s="3">
-        <v>29400</v>
       </c>
       <c r="Q72" s="3">
         <v>29400</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S72" s="3">
+      <c r="R72" s="3">
+        <v>29400</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T72" s="3">
         <v>29300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>30400</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>29700</v>
+      </c>
+      <c r="E76" s="3">
         <v>29100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>28100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>31200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>30800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>30000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>29200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>28300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>29400</v>
-      </c>
-      <c r="L76" s="3">
-        <v>29100</v>
       </c>
       <c r="M76" s="3">
         <v>29100</v>
       </c>
       <c r="N76" s="3">
+        <v>29100</v>
+      </c>
+      <c r="O76" s="3">
         <v>30000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>30300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>30500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>30000</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S76" s="3">
+      <c r="S76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T76" s="3">
         <v>30900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>32100</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>300</v>
+      </c>
+      <c r="E81" s="3">
         <v>700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>300</v>
       </c>
-      <c r="H81" s="3">
-        <v>100</v>
-      </c>
       <c r="I81" s="3">
+        <v>100</v>
+      </c>
+      <c r="J81" s="3">
         <v>400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
-        <v>100</v>
-      </c>
       <c r="N81" s="3">
+        <v>100</v>
+      </c>
+      <c r="O81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>300</v>
       </c>
-      <c r="P81" s="3">
-        <v>100</v>
-      </c>
       <c r="Q81" s="3">
+        <v>100</v>
+      </c>
+      <c r="R81" s="3">
         <v>200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4621,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4462,11 +4661,11 @@
         <v>100</v>
       </c>
       <c r="O83" s="3">
+        <v>100</v>
+      </c>
+      <c r="P83" s="3">
         <v>200</v>
       </c>
-      <c r="P83" s="3">
-        <v>100</v>
-      </c>
       <c r="Q83" s="3">
         <v>100</v>
       </c>
@@ -4479,8 +4678,11 @@
       <c r="T83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-300</v>
+        <v>300</v>
       </c>
       <c r="E89" s="3">
         <v>-300</v>
       </c>
       <c r="F89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G89" s="3">
         <v>400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-2100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5057,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4854,26 +5075,26 @@
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>8</v>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>8</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -4891,10 +5112,13 @@
         <v>0</v>
       </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5232,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E94" s="3">
         <v>1600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>2000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>2900</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>2300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>4000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>1800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>1100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>2500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>1200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5550,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>700</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-3100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-900</v>
-      </c>
-      <c r="K100" s="3">
-        <v>-200</v>
       </c>
       <c r="L100" s="3">
         <v>-200</v>
       </c>
       <c r="M100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N100" s="3">
         <v>-300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +5668,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>1000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ACMTA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ACMTA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
   <si>
     <t>ACMTA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,160 +665,173 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F8" s="3">
         <v>900</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1500</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G8" s="3">
         <v>1500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J8" s="3">
         <v>800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>500</v>
-      </c>
-      <c r="M8" s="3">
-        <v>600</v>
-      </c>
-      <c r="N8" s="3">
-        <v>1000</v>
       </c>
       <c r="O8" s="3">
         <v>600</v>
       </c>
       <c r="P8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>600</v>
+      </c>
+      <c r="R8" s="3">
         <v>800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>1100</v>
-      </c>
-      <c r="R8" s="3">
-        <v>1200</v>
-      </c>
-      <c r="S8" s="3">
-        <v>700</v>
       </c>
       <c r="T8" s="3">
         <v>1200</v>
       </c>
       <c r="U8" s="3">
+        <v>700</v>
+      </c>
+      <c r="V8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="W8" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F9" s="3">
         <v>100</v>
@@ -833,13 +846,13 @@
         <v>100</v>
       </c>
       <c r="J9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K9" s="3">
         <v>100</v>
       </c>
       <c r="L9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M9" s="3">
         <v>100</v>
@@ -848,19 +861,19 @@
         <v>100</v>
       </c>
       <c r="O9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R9" s="3">
         <v>0</v>
       </c>
       <c r="S9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T9" s="3">
         <v>0</v>
@@ -868,67 +881,79 @@
       <c r="U9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3">
+        <v>0</v>
+      </c>
+      <c r="W9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F10" s="3">
         <v>800</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1400</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G10" s="3">
         <v>1400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J10" s="3">
         <v>700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>1000</v>
-      </c>
-      <c r="R10" s="3">
-        <v>1200</v>
-      </c>
-      <c r="S10" s="3">
-        <v>700</v>
       </c>
       <c r="T10" s="3">
         <v>1200</v>
       </c>
       <c r="U10" s="3">
+        <v>700</v>
+      </c>
+      <c r="V10" s="3">
+        <v>1200</v>
+      </c>
+      <c r="W10" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +975,10 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1009,8 +1036,14 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,8 +1101,14 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1127,8 +1166,14 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1231,14 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1257,140 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>200</v>
+      </c>
+      <c r="F17" s="3">
         <v>500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>800</v>
       </c>
-      <c r="G17" s="3">
-        <v>100</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
+        <v>100</v>
+      </c>
+      <c r="J17" s="3">
         <v>600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>-200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>500</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F18" s="3">
         <v>400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>900</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="3">
         <v>1400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>700</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,8 +1412,10 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1358,14 +1425,14 @@
       <c r="E20" s="3">
         <v>0</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>8</v>
+      <c r="F20" s="3">
+        <v>0</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
+      <c r="H20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
@@ -1406,67 +1473,79 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F21" s="3">
         <v>400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>900</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" s="3">
         <v>1400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>800</v>
       </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
         <v>300</v>
       </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
         <v>600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>400</v>
       </c>
-      <c r="S21" s="3">
-        <v>0</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3">
         <v>900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1489,10 +1568,10 @@
         <v>0</v>
       </c>
       <c r="J22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L22" s="3">
         <v>100</v>
@@ -1524,67 +1603,79 @@
       <c r="U22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>100</v>
+      </c>
+      <c r="W22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F23" s="3">
         <v>300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-2000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>1400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
-        <v>100</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>400</v>
       </c>
-      <c r="Q23" s="3">
-        <v>100</v>
-      </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
+        <v>100</v>
+      </c>
+      <c r="T23" s="3">
         <v>200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1592,58 +1683,64 @@
         <v>100</v>
       </c>
       <c r="E24" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="F24" s="3">
+        <v>100</v>
+      </c>
+      <c r="G24" s="3">
+        <v>100</v>
+      </c>
+      <c r="H24" s="3">
         <v>-400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L24" s="3">
         <v>100</v>
       </c>
       <c r="M24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
       <c r="P24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
       <c r="R24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>-100</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1798,144 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F26" s="3">
         <v>300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-1600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>1100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>300</v>
       </c>
-      <c r="I26" s="3">
-        <v>100</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
+        <v>100</v>
+      </c>
+      <c r="L26" s="3">
         <v>400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
-        <v>100</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>300</v>
       </c>
-      <c r="Q26" s="3">
-        <v>100</v>
-      </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
+        <v>100</v>
+      </c>
+      <c r="T26" s="3">
         <v>200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F27" s="3">
         <v>300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-1600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>1100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>300</v>
       </c>
-      <c r="I27" s="3">
-        <v>100</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
+        <v>100</v>
+      </c>
+      <c r="L27" s="3">
         <v>400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
-        <v>100</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>300</v>
       </c>
-      <c r="Q27" s="3">
-        <v>100</v>
-      </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
+        <v>100</v>
+      </c>
+      <c r="T27" s="3">
         <v>200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1993,14 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1904,26 +2025,26 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -1937,8 +2058,14 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2123,14 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,8 +2188,14 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2066,14 +2205,14 @@
       <c r="E32" s="3">
         <v>0</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>8</v>
+      <c r="F32" s="3">
+        <v>0</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
+      <c r="H32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
@@ -2114,67 +2253,79 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F33" s="3">
         <v>300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>1100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>300</v>
       </c>
-      <c r="I33" s="3">
-        <v>100</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
+        <v>100</v>
+      </c>
+      <c r="L33" s="3">
         <v>400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
-        <v>100</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>300</v>
       </c>
-      <c r="Q33" s="3">
-        <v>100</v>
-      </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
+        <v>100</v>
+      </c>
+      <c r="T33" s="3">
         <v>200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2383,149 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F35" s="3">
         <v>300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>1100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>300</v>
       </c>
-      <c r="I35" s="3">
-        <v>100</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
+        <v>100</v>
+      </c>
+      <c r="L35" s="3">
         <v>400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
-        <v>100</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>300</v>
       </c>
-      <c r="Q35" s="3">
-        <v>100</v>
-      </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
+        <v>100</v>
+      </c>
+      <c r="T35" s="3">
         <v>200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2547,10 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,67 +2572,75 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F41" s="3">
         <v>1900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>2500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>2500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>2800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>3400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>2200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>1900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>2100</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V41" s="3">
         <v>1800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,31 +2698,37 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
       </c>
       <c r="J43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -2552,7 +2737,7 @@
         <v>100</v>
       </c>
       <c r="M43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N43" s="3">
         <v>100</v>
@@ -2569,17 +2754,23 @@
       <c r="R43" s="3">
         <v>100</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>8</v>
+      <c r="S43" s="3">
+        <v>100</v>
       </c>
       <c r="T43" s="3">
+        <v>100</v>
+      </c>
+      <c r="U43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V43" s="3">
         <v>200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,8 +2828,14 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2696,8 +2893,14 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2755,67 +2958,79 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>47500</v>
+      </c>
+      <c r="E47" s="3">
+        <v>46900</v>
+      </c>
+      <c r="F47" s="3">
         <v>45400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>44200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>43800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>48100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>48700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>48400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>50100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>48900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>51700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>50300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>50800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>52100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>54800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>56300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>56200</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V47" s="3">
         <v>61300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>62900</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2823,10 +3038,10 @@
         <v>4300</v>
       </c>
       <c r="E48" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="F48" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="G48" s="3">
         <v>4400</v>
@@ -2835,46 +3050,52 @@
         <v>4400</v>
       </c>
       <c r="I48" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="J48" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="K48" s="3">
         <v>4500</v>
       </c>
       <c r="L48" s="3">
+        <v>4500</v>
+      </c>
+      <c r="M48" s="3">
+        <v>4500</v>
+      </c>
+      <c r="N48" s="3">
         <v>4600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>4600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>4700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>4700</v>
-      </c>
-      <c r="P48" s="3">
-        <v>4800</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>4800</v>
       </c>
       <c r="R48" s="3">
         <v>4800</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>8</v>
+      <c r="S48" s="3">
+        <v>4800</v>
       </c>
       <c r="T48" s="3">
+        <v>4800</v>
+      </c>
+      <c r="U48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V48" s="3">
         <v>5000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2923,17 +3144,23 @@
       <c r="R49" s="3">
         <v>1900</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>8</v>
+      <c r="S49" s="3">
+        <v>1900</v>
       </c>
       <c r="T49" s="3">
         <v>1900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="U49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V49" s="3">
         <v>1900</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3218,14 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,8 +3283,14 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3061,26 +3300,26 @@
       <c r="E52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" s="3">
         <v>400</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
+      <c r="I52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J52" s="3">
         <v>0</v>
       </c>
       <c r="K52" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="L52" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="M52" s="3">
         <v>300</v>
@@ -3089,28 +3328,34 @@
         <v>300</v>
       </c>
       <c r="O52" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="P52" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>100</v>
+      </c>
+      <c r="R52" s="3">
         <v>700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>900</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V52" s="3">
         <v>300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3413,79 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>57700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>57700</v>
+      </c>
+      <c r="F54" s="3">
         <v>56500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>55900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>55500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>58500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>58700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>58400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>60900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>60900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>62600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>62900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>63600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>66300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>68800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>70200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>70200</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V54" s="3">
         <v>74500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>76500</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3507,10 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,25 +3532,27 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1100</v>
       </c>
-      <c r="E57" s="3">
-        <v>900</v>
-      </c>
       <c r="F57" s="3">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="G57" s="3">
         <v>900</v>
       </c>
       <c r="H57" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="I57" s="3">
         <v>900</v>
@@ -3300,40 +3561,46 @@
         <v>900</v>
       </c>
       <c r="K57" s="3">
+        <v>900</v>
+      </c>
+      <c r="L57" s="3">
+        <v>900</v>
+      </c>
+      <c r="M57" s="3">
         <v>1200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>1300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>900</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V57" s="3">
         <v>1500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3391,67 +3658,79 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>400</v>
+      </c>
+      <c r="F59" s="3">
         <v>500</v>
-      </c>
-      <c r="E59" s="3">
-        <v>500</v>
-      </c>
-      <c r="F59" s="3">
-        <v>400</v>
       </c>
       <c r="G59" s="3">
         <v>500</v>
       </c>
       <c r="H59" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I59" s="3">
         <v>500</v>
       </c>
       <c r="J59" s="3">
+        <v>500</v>
+      </c>
+      <c r="K59" s="3">
+        <v>500</v>
+      </c>
+      <c r="L59" s="3">
         <v>600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>600</v>
-      </c>
-      <c r="O59" s="3">
-        <v>500</v>
-      </c>
-      <c r="P59" s="3">
-        <v>500</v>
       </c>
       <c r="Q59" s="3">
         <v>500</v>
       </c>
       <c r="R59" s="3">
-        <v>700</v>
-      </c>
-      <c r="S59" s="3" t="s">
-        <v>8</v>
+        <v>500</v>
+      </c>
+      <c r="S59" s="3">
+        <v>500</v>
       </c>
       <c r="T59" s="3">
         <v>700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="U59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V59" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3509,94 +3788,106 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="E61" s="3">
         <v>1100</v>
       </c>
       <c r="F61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H61" s="3">
         <v>1700</v>
-      </c>
-      <c r="G61" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H61" s="3">
-        <v>1000</v>
       </c>
       <c r="I61" s="3">
         <v>1000</v>
       </c>
       <c r="J61" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K61" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L61" s="3">
         <v>4100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>4300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>4400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>4600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>4700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>4900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>7300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>7600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>7900</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>8600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
         <v>400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>200</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3606,11 +3897,11 @@
       <c r="N62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -3627,8 +3918,14 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3983,14 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +4048,14 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +4113,79 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>26300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>26400</v>
+      </c>
+      <c r="F66" s="3">
         <v>26800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>26800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>27400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>27300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>27900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>28500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>31600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>32600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>33200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>33800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>34500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>36300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>38500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>39700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>40200</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V66" s="3">
         <v>43600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>44400</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4207,10 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4268,14 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4333,14 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4398,14 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4463,79 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>29700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>29200</v>
+      </c>
+      <c r="F72" s="3">
         <v>27900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>27600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>27600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>29200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>28500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>28300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>28200</v>
-      </c>
-      <c r="K72" s="3">
-        <v>28400</v>
-      </c>
-      <c r="L72" s="3">
-        <v>29000</v>
       </c>
       <c r="M72" s="3">
         <v>28400</v>
       </c>
       <c r="N72" s="3">
-        <v>28500</v>
+        <v>29000</v>
       </c>
       <c r="O72" s="3">
         <v>28400</v>
       </c>
       <c r="P72" s="3">
+        <v>28500</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>28400</v>
+      </c>
+      <c r="R72" s="3">
         <v>29000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>29400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>29400</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V72" s="3">
         <v>29300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>30400</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4593,14 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4658,14 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4723,79 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>31500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>31300</v>
+      </c>
+      <c r="F76" s="3">
         <v>29700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>29100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>28100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>31200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>30800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>30000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>29200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>28300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>29400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>29100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>29100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>30000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>30300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>30500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>30000</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V76" s="3">
         <v>30900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>32100</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4853,149 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F81" s="3">
         <v>300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>1100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>300</v>
       </c>
-      <c r="I81" s="3">
-        <v>100</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
+        <v>100</v>
+      </c>
+      <c r="L81" s="3">
         <v>400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
-        <v>100</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>300</v>
       </c>
-      <c r="Q81" s="3">
-        <v>100</v>
-      </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
+        <v>100</v>
+      </c>
+      <c r="T81" s="3">
         <v>200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +5017,10 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4664,14 +5061,14 @@
         <v>100</v>
       </c>
       <c r="P83" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>100</v>
+      </c>
+      <c r="R83" s="3">
         <v>200</v>
       </c>
-      <c r="Q83" s="3">
-        <v>100</v>
-      </c>
-      <c r="R83" s="3">
-        <v>100</v>
-      </c>
       <c r="S83" s="3">
         <v>100</v>
       </c>
@@ -4681,8 +5078,14 @@
       <c r="U83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>100</v>
+      </c>
+      <c r="W83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +5143,14 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5208,14 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5273,14 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5338,14 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5403,79 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-1000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>2400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-1200</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-500</v>
       </c>
       <c r="Q89" s="3">
         <v>-300</v>
       </c>
       <c r="R89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T89" s="3">
         <v>-2100</v>
-      </c>
-      <c r="S89" s="3">
-        <v>-400</v>
-      </c>
-      <c r="T89" s="3">
-        <v>600</v>
       </c>
       <c r="U89" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>600</v>
+      </c>
+      <c r="W89" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,8 +5497,10 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5078,29 +5519,29 @@
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -5115,10 +5556,16 @@
         <v>0</v>
       </c>
       <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5623,14 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5688,79 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F94" s="3">
         <v>-900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>1600</v>
-      </c>
-      <c r="F94" s="3">
-        <v>500</v>
-      </c>
-      <c r="G94" s="3">
-        <v>2000</v>
       </c>
       <c r="H94" s="3">
         <v>500</v>
       </c>
       <c r="I94" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J94" s="3">
+        <v>500</v>
+      </c>
+      <c r="K94" s="3">
         <v>2900</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>2300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-2300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>4000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>1800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>1100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>2500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>1200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5782,10 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5843,14 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5908,14 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5973,14 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,8 +6038,14 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5562,58 +6053,64 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-1300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>700</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-3100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-2500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-2100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,63 +6168,75 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-500</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>1000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>2300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-1400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>1700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-1800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>1200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-1300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>1600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-1500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ACMTA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ACMTA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
   <si>
     <t>ACMTA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,172 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>700</v>
+      </c>
+      <c r="E8" s="3">
         <v>1100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1500</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I8" s="3">
+      <c r="I8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="3">
         <v>1500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -834,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3">
         <v>100</v>
@@ -852,10 +859,10 @@
         <v>100</v>
       </c>
       <c r="L9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N9" s="3">
         <v>100</v>
@@ -867,16 +874,16 @@
         <v>100</v>
       </c>
       <c r="Q9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R9" s="3">
         <v>0</v>
       </c>
       <c r="S9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U9" s="3">
         <v>0</v>
@@ -887,73 +894,79 @@
       <c r="W9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>700</v>
+      </c>
+      <c r="E10" s="3">
         <v>1100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1400</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="I10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="3">
         <v>1400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>500</v>
+      </c>
+      <c r="E17" s="3">
         <v>600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>800</v>
       </c>
-      <c r="I17" s="3">
-        <v>100</v>
-      </c>
       <c r="J17" s="3">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="K17" s="3">
         <v>600</v>
       </c>
       <c r="L17" s="3">
+        <v>600</v>
+      </c>
+      <c r="M17" s="3">
         <v>700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>-200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>300</v>
-      </c>
-      <c r="S17" s="3">
-        <v>900</v>
       </c>
       <c r="T17" s="3">
         <v>900</v>
       </c>
       <c r="U17" s="3">
+        <v>900</v>
+      </c>
+      <c r="V17" s="3">
         <v>800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>200</v>
+      </c>
+      <c r="E18" s="3">
         <v>500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>900</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="I18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="3">
         <v>1400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>700</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1431,11 +1465,11 @@
       <c r="G20" s="3">
         <v>0</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -1479,73 +1513,79 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>200</v>
+      </c>
+      <c r="E21" s="3">
         <v>600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>900</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="3">
         <v>1400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>800</v>
       </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
       <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
         <v>300</v>
       </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
       <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
         <v>600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>400</v>
       </c>
-      <c r="U21" s="3">
-        <v>0</v>
-      </c>
       <c r="V21" s="3">
+        <v>0</v>
+      </c>
+      <c r="W21" s="3">
         <v>900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1574,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M22" s="3">
         <v>100</v>
@@ -1609,102 +1649,108 @@
       <c r="W22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>100</v>
+      </c>
+      <c r="E23" s="3">
         <v>500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
-        <v>100</v>
-      </c>
       <c r="Q23" s="3">
+        <v>100</v>
+      </c>
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>400</v>
       </c>
-      <c r="S23" s="3">
-        <v>100</v>
-      </c>
       <c r="T23" s="3">
+        <v>100</v>
+      </c>
+      <c r="U23" s="3">
         <v>200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>100</v>
+      </c>
+      <c r="F24" s="3">
         <v>400</v>
       </c>
-      <c r="F24" s="3">
-        <v>100</v>
-      </c>
       <c r="G24" s="3">
         <v>100</v>
       </c>
       <c r="H24" s="3">
+        <v>100</v>
+      </c>
+      <c r="I24" s="3">
         <v>-400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>300</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
       <c r="L24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M24" s="3">
         <v>100</v>
@@ -1713,7 +1759,7 @@
         <v>100</v>
       </c>
       <c r="O24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
@@ -1722,25 +1768,28 @@
         <v>0</v>
       </c>
       <c r="R24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T24" s="3">
         <v>0</v>
       </c>
       <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
         <v>-100</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>100</v>
+      </c>
+      <c r="E26" s="3">
         <v>400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>300</v>
       </c>
-      <c r="K26" s="3">
-        <v>100</v>
-      </c>
       <c r="L26" s="3">
+        <v>100</v>
+      </c>
+      <c r="M26" s="3">
         <v>400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
-        <v>100</v>
-      </c>
       <c r="Q26" s="3">
+        <v>100</v>
+      </c>
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>300</v>
       </c>
-      <c r="S26" s="3">
-        <v>100</v>
-      </c>
       <c r="T26" s="3">
+        <v>100</v>
+      </c>
+      <c r="U26" s="3">
         <v>200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>100</v>
+      </c>
+      <c r="E27" s="3">
         <v>400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>300</v>
       </c>
-      <c r="K27" s="3">
-        <v>100</v>
-      </c>
       <c r="L27" s="3">
+        <v>100</v>
+      </c>
+      <c r="M27" s="3">
         <v>400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
-        <v>100</v>
-      </c>
       <c r="Q27" s="3">
+        <v>100</v>
+      </c>
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>300</v>
       </c>
-      <c r="S27" s="3">
-        <v>100</v>
-      </c>
       <c r="T27" s="3">
+        <v>100</v>
+      </c>
+      <c r="U27" s="3">
         <v>200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2031,11 +2092,11 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -2043,11 +2104,11 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2211,11 +2281,11 @@
       <c r="G32" s="3">
         <v>0</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
@@ -2259,73 +2329,79 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>100</v>
+      </c>
+      <c r="E33" s="3">
         <v>400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>300</v>
       </c>
-      <c r="K33" s="3">
-        <v>100</v>
-      </c>
       <c r="L33" s="3">
+        <v>100</v>
+      </c>
+      <c r="M33" s="3">
         <v>400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
-        <v>100</v>
-      </c>
       <c r="Q33" s="3">
+        <v>100</v>
+      </c>
+      <c r="R33" s="3">
         <v>-300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>300</v>
       </c>
-      <c r="S33" s="3">
-        <v>100</v>
-      </c>
       <c r="T33" s="3">
+        <v>100</v>
+      </c>
+      <c r="U33" s="3">
         <v>200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>100</v>
+      </c>
+      <c r="E35" s="3">
         <v>400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>300</v>
       </c>
-      <c r="K35" s="3">
-        <v>100</v>
-      </c>
       <c r="L35" s="3">
+        <v>100</v>
+      </c>
+      <c r="M35" s="3">
         <v>400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
-        <v>100</v>
-      </c>
       <c r="Q35" s="3">
+        <v>100</v>
+      </c>
+      <c r="R35" s="3">
         <v>-300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>300</v>
       </c>
-      <c r="S35" s="3">
-        <v>100</v>
-      </c>
       <c r="T35" s="3">
+        <v>100</v>
+      </c>
+      <c r="U35" s="3">
         <v>200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E41" s="3">
         <v>1200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1900</v>
-      </c>
-      <c r="G41" s="3">
-        <v>2500</v>
       </c>
       <c r="H41" s="3">
         <v>2500</v>
       </c>
       <c r="I41" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J41" s="3">
         <v>1500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2800</v>
-      </c>
-      <c r="N41" s="3">
-        <v>1200</v>
       </c>
       <c r="O41" s="3">
         <v>1200</v>
       </c>
       <c r="P41" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q41" s="3">
         <v>1600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2100</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V41" s="3">
+      <c r="V41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W41" s="3">
         <v>1800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,8 +2794,11 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2713,19 +2806,19 @@
         <v>100</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
       </c>
       <c r="G43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H43" s="3">
         <v>100</v>
       </c>
       <c r="I43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
@@ -2734,13 +2827,13 @@
         <v>0</v>
       </c>
       <c r="L43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O43" s="3">
         <v>100</v>
@@ -2760,17 +2853,20 @@
       <c r="T43" s="3">
         <v>100</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V43" s="3">
+      <c r="U43" s="3">
+        <v>100</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W43" s="3">
         <v>200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,8 +2930,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2899,8 +2998,11 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2964,73 +3066,79 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>46200</v>
+      </c>
+      <c r="E47" s="3">
         <v>47500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>46900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>45400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>44200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>43800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>48100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>48700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>48400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>50100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>48900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>51700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>50300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>50800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>52100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>54800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>56300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>56200</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V47" s="3">
+      <c r="V47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W47" s="3">
         <v>61300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>62900</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3044,7 +3152,7 @@
         <v>4300</v>
       </c>
       <c r="G48" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="H48" s="3">
         <v>4400</v>
@@ -3056,7 +3164,7 @@
         <v>4400</v>
       </c>
       <c r="K48" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="L48" s="3">
         <v>4500</v>
@@ -3065,19 +3173,19 @@
         <v>4500</v>
       </c>
       <c r="N48" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="O48" s="3">
         <v>4600</v>
       </c>
       <c r="P48" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="Q48" s="3">
         <v>4700</v>
       </c>
       <c r="R48" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="S48" s="3">
         <v>4800</v>
@@ -3085,17 +3193,20 @@
       <c r="T48" s="3">
         <v>4800</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V48" s="3">
-        <v>5000</v>
+      <c r="U48" s="3">
+        <v>4800</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W48" s="3">
         <v>5000</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3150,17 +3261,20 @@
       <c r="T49" s="3">
         <v>1900</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V49" s="3">
+      <c r="U49" s="3">
         <v>1900</v>
+      </c>
+      <c r="V49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W49" s="3">
         <v>1900</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3306,14 +3426,14 @@
       <c r="G52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" s="3">
         <v>400</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="J52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -3322,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="M52" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="N52" s="3">
         <v>300</v>
@@ -3334,28 +3454,31 @@
         <v>300</v>
       </c>
       <c r="Q52" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="R52" s="3">
+        <v>100</v>
+      </c>
+      <c r="S52" s="3">
         <v>700</v>
-      </c>
-      <c r="S52" s="3">
-        <v>900</v>
       </c>
       <c r="T52" s="3">
         <v>900</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V52" s="3">
+      <c r="U52" s="3">
+        <v>900</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W52" s="3">
         <v>300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>57700</v>
+        <v>58300</v>
       </c>
       <c r="E54" s="3">
         <v>57700</v>
       </c>
       <c r="F54" s="3">
+        <v>57700</v>
+      </c>
+      <c r="G54" s="3">
         <v>56500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>55900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>55500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>58500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>58700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>58400</v>
-      </c>
-      <c r="L54" s="3">
-        <v>60900</v>
       </c>
       <c r="M54" s="3">
         <v>60900</v>
       </c>
       <c r="N54" s="3">
+        <v>60900</v>
+      </c>
+      <c r="O54" s="3">
         <v>62600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>62900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>63600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>66300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>68800</v>
-      </c>
-      <c r="S54" s="3">
-        <v>70200</v>
       </c>
       <c r="T54" s="3">
         <v>70200</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V54" s="3">
+      <c r="U54" s="3">
+        <v>70200</v>
+      </c>
+      <c r="V54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W54" s="3">
         <v>74500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>76500</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,28 +3664,29 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>800</v>
+      </c>
+      <c r="E57" s="3">
         <v>1000</v>
-      </c>
-      <c r="E57" s="3">
-        <v>1100</v>
       </c>
       <c r="F57" s="3">
         <v>1100</v>
       </c>
       <c r="G57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H57" s="3">
         <v>900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>600</v>
-      </c>
-      <c r="I57" s="3">
-        <v>900</v>
       </c>
       <c r="J57" s="3">
         <v>900</v>
@@ -3567,40 +3698,43 @@
         <v>900</v>
       </c>
       <c r="M57" s="3">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="N57" s="3">
         <v>1200</v>
       </c>
       <c r="O57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P57" s="3">
         <v>900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>900</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V57" s="3">
+      <c r="V57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W57" s="3">
         <v>1500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3664,8 +3798,11 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3676,16 +3813,16 @@
         <v>400</v>
       </c>
       <c r="F59" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G59" s="3">
         <v>500</v>
       </c>
       <c r="H59" s="3">
+        <v>500</v>
+      </c>
+      <c r="I59" s="3">
         <v>400</v>
-      </c>
-      <c r="I59" s="3">
-        <v>500</v>
       </c>
       <c r="J59" s="3">
         <v>500</v>
@@ -3694,22 +3831,22 @@
         <v>500</v>
       </c>
       <c r="L59" s="3">
+        <v>500</v>
+      </c>
+      <c r="M59" s="3">
         <v>600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>500</v>
-      </c>
-      <c r="O59" s="3">
-        <v>600</v>
       </c>
       <c r="P59" s="3">
         <v>600</v>
       </c>
       <c r="Q59" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="R59" s="3">
         <v>500</v>
@@ -3718,19 +3855,22 @@
         <v>500</v>
       </c>
       <c r="T59" s="3">
+        <v>500</v>
+      </c>
+      <c r="U59" s="3">
         <v>700</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V59" s="3">
-        <v>700</v>
+      <c r="V59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W59" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3794,8 +3934,11 @@
       <c r="W60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3803,7 +3946,7 @@
         <v>900</v>
       </c>
       <c r="E61" s="3">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="F61" s="3">
         <v>1100</v>
@@ -3812,10 +3955,10 @@
         <v>1100</v>
       </c>
       <c r="H61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I61" s="3">
         <v>1700</v>
-      </c>
-      <c r="I61" s="3">
-        <v>1000</v>
       </c>
       <c r="J61" s="3">
         <v>1000</v>
@@ -3824,73 +3967,76 @@
         <v>1000</v>
       </c>
       <c r="L61" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M61" s="3">
         <v>4100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>7300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>7600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>7900</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>8600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E62" s="3">
         <v>400</v>
       </c>
       <c r="F62" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="G62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H62" s="3">
         <v>0</v>
       </c>
       <c r="I62" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="J62" s="3">
         <v>400</v>
       </c>
       <c r="K62" s="3">
+        <v>400</v>
+      </c>
+      <c r="L62" s="3">
         <v>200</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3903,8 +4049,8 @@
       <c r="P62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,8 +4274,11 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4128,64 +4286,67 @@
         <v>26300</v>
       </c>
       <c r="E66" s="3">
+        <v>26300</v>
+      </c>
+      <c r="F66" s="3">
         <v>26400</v>
-      </c>
-      <c r="F66" s="3">
-        <v>26800</v>
       </c>
       <c r="G66" s="3">
         <v>26800</v>
       </c>
       <c r="H66" s="3">
+        <v>26800</v>
+      </c>
+      <c r="I66" s="3">
         <v>27400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>27300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>27900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>28500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>31600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>32600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>33200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>33800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>34500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>36300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>38500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>39700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>40200</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V66" s="3">
+      <c r="V66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W66" s="3">
         <v>43600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>44400</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>29800</v>
+      </c>
+      <c r="E72" s="3">
         <v>29700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>29200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>27900</v>
-      </c>
-      <c r="G72" s="3">
-        <v>27600</v>
       </c>
       <c r="H72" s="3">
         <v>27600</v>
       </c>
       <c r="I72" s="3">
+        <v>27600</v>
+      </c>
+      <c r="J72" s="3">
         <v>29200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>28500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>28300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>28200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>28400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>29000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>28400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>28500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>28400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>29000</v>
-      </c>
-      <c r="S72" s="3">
-        <v>29400</v>
       </c>
       <c r="T72" s="3">
         <v>29400</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V72" s="3">
+      <c r="U72" s="3">
+        <v>29400</v>
+      </c>
+      <c r="V72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W72" s="3">
         <v>29300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>30400</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E76" s="3">
         <v>31500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>31300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>29700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>29100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>28100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>31200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>30800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>30000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>29200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>28300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>29400</v>
-      </c>
-      <c r="O76" s="3">
-        <v>29100</v>
       </c>
       <c r="P76" s="3">
         <v>29100</v>
       </c>
       <c r="Q76" s="3">
+        <v>29100</v>
+      </c>
+      <c r="R76" s="3">
         <v>30000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>30300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>30500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>30000</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V76" s="3">
+      <c r="V76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W76" s="3">
         <v>30900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>32100</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>100</v>
+      </c>
+      <c r="E81" s="3">
         <v>400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>300</v>
       </c>
-      <c r="K81" s="3">
-        <v>100</v>
-      </c>
       <c r="L81" s="3">
+        <v>100</v>
+      </c>
+      <c r="M81" s="3">
         <v>400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
-        <v>100</v>
-      </c>
       <c r="Q81" s="3">
+        <v>100</v>
+      </c>
+      <c r="R81" s="3">
         <v>-300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>300</v>
       </c>
-      <c r="S81" s="3">
-        <v>100</v>
-      </c>
       <c r="T81" s="3">
+        <v>100</v>
+      </c>
+      <c r="U81" s="3">
         <v>200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5067,11 +5266,11 @@
         <v>100</v>
       </c>
       <c r="R83" s="3">
+        <v>100</v>
+      </c>
+      <c r="S83" s="3">
         <v>200</v>
       </c>
-      <c r="S83" s="3">
-        <v>100</v>
-      </c>
       <c r="T83" s="3">
         <v>100</v>
       </c>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>300</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-300</v>
       </c>
       <c r="H89" s="3">
         <v>-300</v>
       </c>
       <c r="I89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J89" s="3">
         <v>400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-2100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5525,26 +5746,26 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>8</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>8</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -5562,10 +5783,13 @@
         <v>0</v>
       </c>
       <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>1600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>2000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>2900</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>2300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>4000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>1800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>1100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>2500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>1200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,8 +6287,11 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6059,58 +6305,61 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>-1300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>700</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-3100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-900</v>
-      </c>
-      <c r="N100" s="3">
-        <v>-200</v>
       </c>
       <c r="O100" s="3">
         <v>-200</v>
       </c>
       <c r="P100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-2100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,69 +6423,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-500</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>1000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ACMTA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ACMTA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
   <si>
     <t>ACMTA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,172 +665,179 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>600</v>
+      </c>
+      <c r="E8" s="3">
         <v>700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1500</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J8" s="3">
+      <c r="J8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="3">
         <v>1500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -844,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3">
         <v>100</v>
@@ -862,10 +869,10 @@
         <v>100</v>
       </c>
       <c r="M9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O9" s="3">
         <v>100</v>
@@ -877,16 +884,16 @@
         <v>100</v>
       </c>
       <c r="R9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S9" s="3">
         <v>0</v>
       </c>
       <c r="T9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V9" s="3">
         <v>0</v>
@@ -897,76 +904,82 @@
       <c r="X9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>600</v>
+      </c>
+      <c r="E10" s="3">
         <v>700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1400</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="J10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="3">
         <v>1400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1004,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1073,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1144,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1195,8 +1215,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1286,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,76 +1312,80 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>400</v>
+      </c>
+      <c r="E17" s="3">
         <v>500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>800</v>
       </c>
-      <c r="J17" s="3">
-        <v>100</v>
-      </c>
       <c r="K17" s="3">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="L17" s="3">
         <v>600</v>
       </c>
       <c r="M17" s="3">
+        <v>600</v>
+      </c>
+      <c r="N17" s="3">
         <v>700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>-200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>300</v>
-      </c>
-      <c r="T17" s="3">
-        <v>900</v>
       </c>
       <c r="U17" s="3">
         <v>900</v>
       </c>
       <c r="V17" s="3">
+        <v>900</v>
+      </c>
+      <c r="W17" s="3">
         <v>800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1363,67 +1393,70 @@
         <v>200</v>
       </c>
       <c r="E18" s="3">
+        <v>200</v>
+      </c>
+      <c r="F18" s="3">
         <v>500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>900</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="J18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K18" s="3">
         <v>1400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>700</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1481,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1468,11 +1502,11 @@
       <c r="H20" s="3">
         <v>0</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -1516,76 +1550,82 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>300</v>
+      </c>
+      <c r="E21" s="3">
         <v>200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>900</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K21" s="3">
         <v>1400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>800</v>
       </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
       <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
         <v>300</v>
       </c>
-      <c r="R21" s="3">
-        <v>0</v>
-      </c>
       <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
         <v>600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>400</v>
       </c>
-      <c r="V21" s="3">
-        <v>0</v>
-      </c>
       <c r="W21" s="3">
+        <v>0</v>
+      </c>
+      <c r="X21" s="3">
         <v>900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1617,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N22" s="3">
         <v>100</v>
@@ -1652,76 +1692,82 @@
       <c r="X22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E23" s="3">
+        <v>100</v>
+      </c>
+      <c r="F23" s="3">
         <v>500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
-        <v>100</v>
-      </c>
       <c r="R23" s="3">
+        <v>100</v>
+      </c>
+      <c r="S23" s="3">
         <v>-200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>400</v>
       </c>
-      <c r="T23" s="3">
-        <v>100</v>
-      </c>
       <c r="U23" s="3">
+        <v>100</v>
+      </c>
+      <c r="V23" s="3">
         <v>200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1729,31 +1775,31 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>100</v>
+      </c>
+      <c r="G24" s="3">
         <v>400</v>
       </c>
-      <c r="G24" s="3">
-        <v>100</v>
-      </c>
       <c r="H24" s="3">
         <v>100</v>
       </c>
       <c r="I24" s="3">
+        <v>100</v>
+      </c>
+      <c r="J24" s="3">
         <v>-400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
       <c r="M24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N24" s="3">
         <v>100</v>
@@ -1762,7 +1808,7 @@
         <v>100</v>
       </c>
       <c r="P24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
@@ -1771,25 +1817,28 @@
         <v>0</v>
       </c>
       <c r="S24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U24" s="3">
         <v>0</v>
       </c>
       <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
         <v>-100</v>
       </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1905,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E26" s="3">
+        <v>100</v>
+      </c>
+      <c r="F26" s="3">
         <v>400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>300</v>
       </c>
-      <c r="L26" s="3">
-        <v>100</v>
-      </c>
       <c r="M26" s="3">
+        <v>100</v>
+      </c>
+      <c r="N26" s="3">
         <v>400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
-        <v>100</v>
-      </c>
       <c r="R26" s="3">
+        <v>100</v>
+      </c>
+      <c r="S26" s="3">
         <v>-200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>300</v>
       </c>
-      <c r="T26" s="3">
-        <v>100</v>
-      </c>
       <c r="U26" s="3">
+        <v>100</v>
+      </c>
+      <c r="V26" s="3">
         <v>200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E27" s="3">
+        <v>100</v>
+      </c>
+      <c r="F27" s="3">
         <v>400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>300</v>
       </c>
-      <c r="L27" s="3">
-        <v>100</v>
-      </c>
       <c r="M27" s="3">
+        <v>100</v>
+      </c>
+      <c r="N27" s="3">
         <v>400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
-        <v>100</v>
-      </c>
       <c r="R27" s="3">
+        <v>100</v>
+      </c>
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>300</v>
       </c>
-      <c r="T27" s="3">
-        <v>100</v>
-      </c>
       <c r="U27" s="3">
+        <v>100</v>
+      </c>
+      <c r="V27" s="3">
         <v>200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2095,11 +2156,11 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -2107,11 +2168,11 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2128,8 +2189,11 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2331,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2284,11 +2354,11 @@
       <c r="H32" s="3">
         <v>0</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -2332,76 +2402,82 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E33" s="3">
+        <v>100</v>
+      </c>
+      <c r="F33" s="3">
         <v>400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>300</v>
       </c>
-      <c r="L33" s="3">
-        <v>100</v>
-      </c>
       <c r="M33" s="3">
+        <v>100</v>
+      </c>
+      <c r="N33" s="3">
         <v>400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
-        <v>100</v>
-      </c>
       <c r="R33" s="3">
+        <v>100</v>
+      </c>
+      <c r="S33" s="3">
         <v>-300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>300</v>
       </c>
-      <c r="T33" s="3">
-        <v>100</v>
-      </c>
       <c r="U33" s="3">
+        <v>100</v>
+      </c>
+      <c r="V33" s="3">
         <v>200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2544,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E35" s="3">
+        <v>100</v>
+      </c>
+      <c r="F35" s="3">
         <v>400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>300</v>
       </c>
-      <c r="L35" s="3">
-        <v>100</v>
-      </c>
       <c r="M35" s="3">
+        <v>100</v>
+      </c>
+      <c r="N35" s="3">
         <v>400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
-        <v>100</v>
-      </c>
       <c r="R35" s="3">
+        <v>100</v>
+      </c>
+      <c r="S35" s="3">
         <v>-300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>300</v>
       </c>
-      <c r="T35" s="3">
-        <v>100</v>
-      </c>
       <c r="U35" s="3">
+        <v>100</v>
+      </c>
+      <c r="V35" s="3">
         <v>200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2747,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E41" s="3">
         <v>2900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1900</v>
-      </c>
-      <c r="H41" s="3">
-        <v>2500</v>
       </c>
       <c r="I41" s="3">
         <v>2500</v>
       </c>
       <c r="J41" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K41" s="3">
         <v>1500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2800</v>
-      </c>
-      <c r="O41" s="3">
-        <v>1200</v>
       </c>
       <c r="P41" s="3">
         <v>1200</v>
       </c>
       <c r="Q41" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R41" s="3">
         <v>1600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2100</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W41" s="3">
+      <c r="W41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X41" s="3">
         <v>1800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,8 +2887,11 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2809,19 +2902,19 @@
         <v>100</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
       </c>
       <c r="H43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I43" s="3">
         <v>100</v>
       </c>
       <c r="J43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -2830,13 +2923,13 @@
         <v>0</v>
       </c>
       <c r="M43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P43" s="3">
         <v>100</v>
@@ -2856,17 +2949,20 @@
       <c r="U43" s="3">
         <v>100</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W43" s="3">
+      <c r="V43" s="3">
+        <v>100</v>
+      </c>
+      <c r="W43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X43" s="3">
         <v>200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,8 +3029,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3001,8 +3100,11 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3069,76 +3171,82 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>45900</v>
+      </c>
+      <c r="E47" s="3">
         <v>46200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>47500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>46900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>45400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>44200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>43800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>48100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>48700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>48400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>50100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>48900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>51700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>50300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>50800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>52100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>54800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>56300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>56200</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W47" s="3">
+      <c r="W47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X47" s="3">
         <v>61300</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>62900</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3155,7 +3263,7 @@
         <v>4300</v>
       </c>
       <c r="H48" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="I48" s="3">
         <v>4400</v>
@@ -3167,7 +3275,7 @@
         <v>4400</v>
       </c>
       <c r="L48" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="M48" s="3">
         <v>4500</v>
@@ -3176,19 +3284,19 @@
         <v>4500</v>
       </c>
       <c r="O48" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="P48" s="3">
         <v>4600</v>
       </c>
       <c r="Q48" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="R48" s="3">
         <v>4700</v>
       </c>
       <c r="S48" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="T48" s="3">
         <v>4800</v>
@@ -3196,17 +3304,20 @@
       <c r="U48" s="3">
         <v>4800</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W48" s="3">
-        <v>5000</v>
+      <c r="V48" s="3">
+        <v>4800</v>
+      </c>
+      <c r="W48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X48" s="3">
         <v>5000</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3264,17 +3375,20 @@
       <c r="U49" s="3">
         <v>1900</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W49" s="3">
+      <c r="V49" s="3">
         <v>1900</v>
+      </c>
+      <c r="W49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X49" s="3">
         <v>1900</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3526,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3429,14 +3549,14 @@
       <c r="H52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I52" s="3">
+      <c r="I52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J52" s="3">
         <v>400</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -3445,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="N52" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="O52" s="3">
         <v>300</v>
@@ -3457,28 +3577,31 @@
         <v>300</v>
       </c>
       <c r="R52" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="S52" s="3">
+        <v>100</v>
+      </c>
+      <c r="T52" s="3">
         <v>700</v>
-      </c>
-      <c r="T52" s="3">
-        <v>900</v>
       </c>
       <c r="U52" s="3">
         <v>900</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W52" s="3">
+      <c r="V52" s="3">
+        <v>900</v>
+      </c>
+      <c r="W52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X52" s="3">
         <v>300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3668,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>57200</v>
+      </c>
+      <c r="E54" s="3">
         <v>58300</v>
-      </c>
-      <c r="E54" s="3">
-        <v>57700</v>
       </c>
       <c r="F54" s="3">
         <v>57700</v>
       </c>
       <c r="G54" s="3">
+        <v>57700</v>
+      </c>
+      <c r="H54" s="3">
         <v>56500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>55900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>55500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>58500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>58700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>58400</v>
-      </c>
-      <c r="M54" s="3">
-        <v>60900</v>
       </c>
       <c r="N54" s="3">
         <v>60900</v>
       </c>
       <c r="O54" s="3">
+        <v>60900</v>
+      </c>
+      <c r="P54" s="3">
         <v>62600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>62900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>63600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>66300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>68800</v>
-      </c>
-      <c r="T54" s="3">
-        <v>70200</v>
       </c>
       <c r="U54" s="3">
         <v>70200</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W54" s="3">
+      <c r="V54" s="3">
+        <v>70200</v>
+      </c>
+      <c r="W54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X54" s="3">
         <v>74500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>76500</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,8 +3795,9 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3674,22 +3805,22 @@
         <v>800</v>
       </c>
       <c r="E57" s="3">
+        <v>800</v>
+      </c>
+      <c r="F57" s="3">
         <v>1000</v>
-      </c>
-      <c r="F57" s="3">
-        <v>1100</v>
       </c>
       <c r="G57" s="3">
         <v>1100</v>
       </c>
       <c r="H57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I57" s="3">
         <v>900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>600</v>
-      </c>
-      <c r="J57" s="3">
-        <v>900</v>
       </c>
       <c r="K57" s="3">
         <v>900</v>
@@ -3701,40 +3832,43 @@
         <v>900</v>
       </c>
       <c r="N57" s="3">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="O57" s="3">
         <v>1200</v>
       </c>
       <c r="P57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q57" s="3">
         <v>900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>900</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W57" s="3">
+      <c r="W57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X57" s="3">
         <v>1500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3801,8 +3935,11 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3816,16 +3953,16 @@
         <v>400</v>
       </c>
       <c r="G59" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H59" s="3">
         <v>500</v>
       </c>
       <c r="I59" s="3">
+        <v>500</v>
+      </c>
+      <c r="J59" s="3">
         <v>400</v>
-      </c>
-      <c r="J59" s="3">
-        <v>500</v>
       </c>
       <c r="K59" s="3">
         <v>500</v>
@@ -3834,22 +3971,22 @@
         <v>500</v>
       </c>
       <c r="M59" s="3">
+        <v>500</v>
+      </c>
+      <c r="N59" s="3">
         <v>600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>500</v>
-      </c>
-      <c r="P59" s="3">
-        <v>600</v>
       </c>
       <c r="Q59" s="3">
         <v>600</v>
       </c>
       <c r="R59" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="S59" s="3">
         <v>500</v>
@@ -3858,19 +3995,22 @@
         <v>500</v>
       </c>
       <c r="U59" s="3">
+        <v>500</v>
+      </c>
+      <c r="V59" s="3">
         <v>700</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W59" s="3">
-        <v>700</v>
+      <c r="W59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X59" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3937,8 +4077,11 @@
       <c r="X60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3949,7 +4092,7 @@
         <v>900</v>
       </c>
       <c r="F61" s="3">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="G61" s="3">
         <v>1100</v>
@@ -3958,10 +4101,10 @@
         <v>1100</v>
       </c>
       <c r="I61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J61" s="3">
         <v>1700</v>
-      </c>
-      <c r="J61" s="3">
-        <v>1000</v>
       </c>
       <c r="K61" s="3">
         <v>1000</v>
@@ -3970,76 +4113,79 @@
         <v>1000</v>
       </c>
       <c r="M61" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N61" s="3">
         <v>4100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>7300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>7600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>7900</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
         <v>8600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>300</v>
+      </c>
+      <c r="E62" s="3">
         <v>500</v>
-      </c>
-      <c r="E62" s="3">
-        <v>400</v>
       </c>
       <c r="F62" s="3">
         <v>400</v>
       </c>
       <c r="G62" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="H62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I62" s="3">
         <v>0</v>
       </c>
       <c r="J62" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="K62" s="3">
         <v>400</v>
       </c>
       <c r="L62" s="3">
+        <v>400</v>
+      </c>
+      <c r="M62" s="3">
         <v>200</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>8</v>
       </c>
@@ -4052,8 +4198,8 @@
       <c r="Q62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
@@ -4073,8 +4219,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4432,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>26300</v>
+        <v>25100</v>
       </c>
       <c r="E66" s="3">
         <v>26300</v>
       </c>
       <c r="F66" s="3">
+        <v>26300</v>
+      </c>
+      <c r="G66" s="3">
         <v>26400</v>
-      </c>
-      <c r="G66" s="3">
-        <v>26800</v>
       </c>
       <c r="H66" s="3">
         <v>26800</v>
       </c>
       <c r="I66" s="3">
+        <v>26800</v>
+      </c>
+      <c r="J66" s="3">
         <v>27400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>27300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>27900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>28500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>31600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>32600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>33200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>33800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>34500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>36300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>38500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>39700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>40200</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W66" s="3">
+      <c r="W66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X66" s="3">
         <v>43600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>44400</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4814,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E72" s="3">
         <v>29800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>29700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>29200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>27900</v>
-      </c>
-      <c r="H72" s="3">
-        <v>27600</v>
       </c>
       <c r="I72" s="3">
         <v>27600</v>
       </c>
       <c r="J72" s="3">
+        <v>27600</v>
+      </c>
+      <c r="K72" s="3">
         <v>29200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>28500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>28300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>28200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>28400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>29000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>28400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>28500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>28400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>29000</v>
-      </c>
-      <c r="T72" s="3">
-        <v>29400</v>
       </c>
       <c r="U72" s="3">
         <v>29400</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W72" s="3">
+      <c r="V72" s="3">
+        <v>29400</v>
+      </c>
+      <c r="W72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X72" s="3">
         <v>29300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>30400</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,8 +5098,11 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4924,67 +5110,70 @@
         <v>32000</v>
       </c>
       <c r="E76" s="3">
+        <v>32000</v>
+      </c>
+      <c r="F76" s="3">
         <v>31500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>31300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>29700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>29100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>28100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>31200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>30800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>30000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>29200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>28300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>29400</v>
-      </c>
-      <c r="P76" s="3">
-        <v>29100</v>
       </c>
       <c r="Q76" s="3">
         <v>29100</v>
       </c>
       <c r="R76" s="3">
+        <v>29100</v>
+      </c>
+      <c r="S76" s="3">
         <v>30000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>30300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>30500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>30000</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W76" s="3">
+      <c r="W76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X76" s="3">
         <v>30900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>32100</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5240,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E81" s="3">
+        <v>100</v>
+      </c>
+      <c r="F81" s="3">
         <v>400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>300</v>
       </c>
-      <c r="L81" s="3">
-        <v>100</v>
-      </c>
       <c r="M81" s="3">
+        <v>100</v>
+      </c>
+      <c r="N81" s="3">
         <v>400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
-        <v>100</v>
-      </c>
       <c r="R81" s="3">
+        <v>100</v>
+      </c>
+      <c r="S81" s="3">
         <v>-300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>300</v>
       </c>
-      <c r="T81" s="3">
-        <v>100</v>
-      </c>
       <c r="U81" s="3">
+        <v>100</v>
+      </c>
+      <c r="V81" s="3">
         <v>200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5416,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5269,11 +5468,11 @@
         <v>100</v>
       </c>
       <c r="S83" s="3">
+        <v>100</v>
+      </c>
+      <c r="T83" s="3">
         <v>200</v>
       </c>
-      <c r="T83" s="3">
-        <v>100</v>
-      </c>
       <c r="U83" s="3">
         <v>100</v>
       </c>
@@ -5286,8 +5485,11 @@
       <c r="X83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5840,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>300</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-300</v>
       </c>
       <c r="I89" s="3">
         <v>-300</v>
       </c>
       <c r="J89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K89" s="3">
         <v>400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-2100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5940,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5749,26 +5970,26 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>8</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>8</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -5786,10 +6007,13 @@
         <v>0</v>
       </c>
       <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6151,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E94" s="3">
         <v>2000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>1600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>2000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>2900</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>2300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>4000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>1800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>1100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>2500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>1200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6251,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6320,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6533,11 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6308,58 +6554,61 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-1300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>700</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>-3100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-900</v>
-      </c>
-      <c r="O100" s="3">
-        <v>-200</v>
       </c>
       <c r="P100" s="3">
         <v>-200</v>
       </c>
       <c r="Q100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R100" s="3">
         <v>-300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-2100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,72 +6675,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-500</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>1000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ACMTA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ACMTA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
   <si>
     <t>ACMTA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,179 +665,192 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3">
+        <v>900</v>
+      </c>
+      <c r="F8" s="3">
         <v>600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>900</v>
-      </c>
-      <c r="I8" s="3">
-        <v>1500</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K8" s="3">
         <v>1500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N8" s="3">
         <v>800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>500</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>600</v>
-      </c>
-      <c r="R8" s="3">
-        <v>1000</v>
       </c>
       <c r="S8" s="3">
         <v>600</v>
       </c>
       <c r="T8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U8" s="3">
+        <v>600</v>
+      </c>
+      <c r="V8" s="3">
         <v>800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>1100</v>
-      </c>
-      <c r="V8" s="3">
-        <v>1200</v>
-      </c>
-      <c r="W8" s="3">
-        <v>700</v>
       </c>
       <c r="X8" s="3">
         <v>1200</v>
       </c>
       <c r="Y8" s="3">
+        <v>700</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AA8" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -854,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="H9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J9" s="3">
         <v>100</v>
@@ -872,13 +885,13 @@
         <v>100</v>
       </c>
       <c r="N9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O9" s="3">
         <v>100</v>
       </c>
       <c r="P9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="3">
         <v>100</v>
@@ -887,19 +900,19 @@
         <v>100</v>
       </c>
       <c r="S9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V9" s="3">
         <v>0</v>
       </c>
       <c r="W9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X9" s="3">
         <v>0</v>
@@ -907,79 +920,91 @@
       <c r="Y9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="3">
+        <v>900</v>
+      </c>
+      <c r="F10" s="3">
         <v>600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>1100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>1900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>800</v>
-      </c>
-      <c r="I10" s="3">
-        <v>1400</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K10" s="3">
         <v>1400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M10" s="3">
+        <v>1400</v>
+      </c>
+      <c r="N10" s="3">
         <v>700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>1300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>1000</v>
-      </c>
-      <c r="V10" s="3">
-        <v>1200</v>
-      </c>
-      <c r="W10" s="3">
-        <v>700</v>
       </c>
       <c r="X10" s="3">
         <v>1200</v>
       </c>
       <c r="Y10" s="3">
+        <v>700</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AA10" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1005,8 +1030,10 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1076,8 +1103,14 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,8 +1180,14 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1218,8 +1257,14 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1289,8 +1334,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,150 +1364,164 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>200</v>
+      </c>
+      <c r="F17" s="3">
         <v>400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>800</v>
       </c>
-      <c r="K17" s="3">
-        <v>100</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
+        <v>100</v>
+      </c>
+      <c r="N17" s="3">
         <v>600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>-200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3">
+        <v>700</v>
+      </c>
+      <c r="F18" s="3">
         <v>200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>1700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>900</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M18" s="3">
         <v>1400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>700</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
         <v>200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,13 +1547,15 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1505,14 +1572,14 @@
       <c r="I20" s="3">
         <v>0</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>8</v>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
+      <c r="L20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
@@ -1553,79 +1620,91 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3">
+        <v>800</v>
+      </c>
+      <c r="F21" s="3">
         <v>300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>1800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>900</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="3">
         <v>1400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>800</v>
       </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
         <v>300</v>
       </c>
-      <c r="S21" s="3">
-        <v>0</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3">
         <v>600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>400</v>
       </c>
-      <c r="W21" s="3">
-        <v>0</v>
-      </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="3">
         <v>900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1660,10 +1739,10 @@
         <v>0</v>
       </c>
       <c r="N22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P22" s="3">
         <v>100</v>
@@ -1695,150 +1774,168 @@
       <c r="Y22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>700</v>
+      </c>
+      <c r="F23" s="3">
         <v>200</v>
       </c>
-      <c r="E23" s="3">
-        <v>100</v>
-      </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
+        <v>100</v>
+      </c>
+      <c r="H23" s="3">
         <v>500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>1700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-2000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>1400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-100</v>
       </c>
-      <c r="R23" s="3">
-        <v>100</v>
-      </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
+        <v>100</v>
+      </c>
+      <c r="U23" s="3">
         <v>-200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>400</v>
       </c>
-      <c r="U23" s="3">
-        <v>100</v>
-      </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
+        <v>100</v>
+      </c>
+      <c r="X23" s="3">
         <v>200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>100</v>
+      </c>
+      <c r="I24" s="3">
         <v>400</v>
       </c>
-      <c r="H24" s="3">
-        <v>100</v>
-      </c>
-      <c r="I24" s="3">
-        <v>100</v>
-      </c>
       <c r="J24" s="3">
+        <v>100</v>
+      </c>
+      <c r="K24" s="3">
+        <v>100</v>
+      </c>
+      <c r="L24" s="3">
         <v>-400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>300</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P24" s="3">
         <v>100</v>
       </c>
       <c r="Q24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
       <c r="T24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U24" s="3">
         <v>0</v>
       </c>
       <c r="V24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
         <v>-100</v>
       </c>
-      <c r="X24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,150 +2005,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3">
+        <v>500</v>
+      </c>
+      <c r="F26" s="3">
         <v>200</v>
       </c>
-      <c r="E26" s="3">
-        <v>100</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
+        <v>100</v>
+      </c>
+      <c r="H26" s="3">
         <v>400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>1400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>1100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>300</v>
       </c>
-      <c r="M26" s="3">
-        <v>100</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
+        <v>100</v>
+      </c>
+      <c r="P26" s="3">
         <v>400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
-        <v>100</v>
-      </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
+        <v>100</v>
+      </c>
+      <c r="U26" s="3">
         <v>-200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>300</v>
       </c>
-      <c r="U26" s="3">
-        <v>100</v>
-      </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
+        <v>100</v>
+      </c>
+      <c r="X26" s="3">
         <v>200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3">
+        <v>500</v>
+      </c>
+      <c r="F27" s="3">
         <v>200</v>
       </c>
-      <c r="E27" s="3">
-        <v>100</v>
-      </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
+        <v>100</v>
+      </c>
+      <c r="H27" s="3">
         <v>400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>1400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>1100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>300</v>
       </c>
-      <c r="M27" s="3">
-        <v>100</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
+        <v>100</v>
+      </c>
+      <c r="P27" s="3">
         <v>400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
-        <v>100</v>
-      </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
+        <v>100</v>
+      </c>
+      <c r="U27" s="3">
         <v>-200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>300</v>
       </c>
-      <c r="U27" s="3">
-        <v>100</v>
-      </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
+        <v>100</v>
+      </c>
+      <c r="X27" s="3">
         <v>200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,31 +2236,37 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -2159,26 +2280,26 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
+      <c r="S29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
+      <c r="U29" s="3">
+        <v>0</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
@@ -2192,8 +2313,14 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,13 +2467,19 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2357,14 +2496,14 @@
       <c r="I32" s="3">
         <v>0</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>8</v>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
+      <c r="L32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
@@ -2405,79 +2544,91 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3">
+        <v>500</v>
+      </c>
+      <c r="F33" s="3">
         <v>200</v>
       </c>
-      <c r="E33" s="3">
-        <v>100</v>
-      </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
+        <v>100</v>
+      </c>
+      <c r="H33" s="3">
         <v>400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>1400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>1100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>300</v>
       </c>
-      <c r="M33" s="3">
-        <v>100</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
+        <v>100</v>
+      </c>
+      <c r="P33" s="3">
         <v>400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
-        <v>100</v>
-      </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
+        <v>100</v>
+      </c>
+      <c r="U33" s="3">
         <v>-300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>300</v>
       </c>
-      <c r="U33" s="3">
-        <v>100</v>
-      </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
+        <v>100</v>
+      </c>
+      <c r="X33" s="3">
         <v>200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2698,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3">
+        <v>500</v>
+      </c>
+      <c r="F35" s="3">
         <v>200</v>
       </c>
-      <c r="E35" s="3">
-        <v>100</v>
-      </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
+        <v>100</v>
+      </c>
+      <c r="H35" s="3">
         <v>400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>1400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>1100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>300</v>
       </c>
-      <c r="M35" s="3">
-        <v>100</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
+        <v>100</v>
+      </c>
+      <c r="P35" s="3">
         <v>400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
-        <v>100</v>
-      </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
+        <v>100</v>
+      </c>
+      <c r="U35" s="3">
         <v>-300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>300</v>
       </c>
-      <c r="U35" s="3">
-        <v>100</v>
-      </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
+        <v>100</v>
+      </c>
+      <c r="X35" s="3">
         <v>200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,79 +2919,87 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F41" s="3">
         <v>1900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>2900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>2500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>2500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>2800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>1200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>1600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>3400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>2200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>1900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>2100</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z41" s="3">
         <v>1800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2890,8 +3069,14 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2905,28 +3090,28 @@
         <v>100</v>
       </c>
       <c r="G43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
       </c>
       <c r="N43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
@@ -2935,7 +3120,7 @@
         <v>100</v>
       </c>
       <c r="Q43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R43" s="3">
         <v>100</v>
@@ -2952,17 +3137,23 @@
       <c r="V43" s="3">
         <v>100</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>8</v>
+      <c r="W43" s="3">
+        <v>100</v>
       </c>
       <c r="X43" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z43" s="3">
         <v>200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3032,8 +3223,14 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3103,8 +3300,14 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3174,79 +3377,91 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>44300</v>
+      </c>
+      <c r="E47" s="3">
         <v>45900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
+        <v>45900</v>
+      </c>
+      <c r="G47" s="3">
         <v>46200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>47500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>46900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>45400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>44200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>43800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>48100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>48700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>48400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>50100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>48900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>51700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>50300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>50800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>52100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>54800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>56300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>56200</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z47" s="3">
         <v>61300</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>62900</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3266,10 +3481,10 @@
         <v>4300</v>
       </c>
       <c r="I48" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="J48" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="K48" s="3">
         <v>4400</v>
@@ -3278,46 +3493,52 @@
         <v>4400</v>
       </c>
       <c r="M48" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="N48" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="O48" s="3">
         <v>4500</v>
       </c>
       <c r="P48" s="3">
+        <v>4500</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>4500</v>
+      </c>
+      <c r="R48" s="3">
         <v>4600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>4600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>4700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>4700</v>
-      </c>
-      <c r="T48" s="3">
-        <v>4800</v>
-      </c>
-      <c r="U48" s="3">
-        <v>4800</v>
       </c>
       <c r="V48" s="3">
         <v>4800</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>8</v>
+      <c r="W48" s="3">
+        <v>4800</v>
       </c>
       <c r="X48" s="3">
+        <v>4800</v>
+      </c>
+      <c r="Y48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z48" s="3">
         <v>5000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3378,17 +3599,23 @@
       <c r="V49" s="3">
         <v>1900</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>8</v>
+      <c r="W49" s="3">
+        <v>1900</v>
       </c>
       <c r="X49" s="3">
         <v>1900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Y49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z49" s="3">
         <v>1900</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,13 +3762,19 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>8</v>
+      <c r="D52" s="3">
+        <v>100</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>8</v>
@@ -3552,26 +3791,26 @@
       <c r="I52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J52" s="3">
+      <c r="J52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L52" s="3">
         <v>400</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
       </c>
       <c r="O52" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="P52" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Q52" s="3">
         <v>300</v>
@@ -3580,28 +3819,34 @@
         <v>300</v>
       </c>
       <c r="S52" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="T52" s="3">
+        <v>300</v>
+      </c>
+      <c r="U52" s="3">
+        <v>100</v>
+      </c>
+      <c r="V52" s="3">
         <v>700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>900</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z52" s="3">
         <v>300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,79 +3916,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>55600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>58500</v>
+      </c>
+      <c r="F54" s="3">
         <v>57200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>58300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>57700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>57700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>56500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>55900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>55500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>58500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>58700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>58400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>60900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>60900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>62600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>62900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>63600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>66300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>68800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>70200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>70200</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z54" s="3">
         <v>74500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>76500</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,37 +4055,39 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F57" s="3">
         <v>800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1100</v>
-      </c>
-      <c r="I57" s="3">
-        <v>900</v>
-      </c>
-      <c r="J57" s="3">
-        <v>600</v>
       </c>
       <c r="K57" s="3">
         <v>900</v>
       </c>
       <c r="L57" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M57" s="3">
         <v>900</v>
@@ -3835,40 +4096,46 @@
         <v>900</v>
       </c>
       <c r="O57" s="3">
+        <v>900</v>
+      </c>
+      <c r="P57" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q57" s="3">
         <v>1200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>1700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>1000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>1300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>900</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z57" s="3">
         <v>1500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3938,8 +4205,14 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3947,7 +4220,7 @@
         <v>400</v>
       </c>
       <c r="E59" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F59" s="3">
         <v>400</v>
@@ -3956,61 +4229,67 @@
         <v>400</v>
       </c>
       <c r="H59" s="3">
+        <v>400</v>
+      </c>
+      <c r="I59" s="3">
+        <v>400</v>
+      </c>
+      <c r="J59" s="3">
         <v>500</v>
-      </c>
-      <c r="I59" s="3">
-        <v>500</v>
-      </c>
-      <c r="J59" s="3">
-        <v>400</v>
       </c>
       <c r="K59" s="3">
         <v>500</v>
       </c>
       <c r="L59" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M59" s="3">
         <v>500</v>
       </c>
       <c r="N59" s="3">
+        <v>500</v>
+      </c>
+      <c r="O59" s="3">
+        <v>500</v>
+      </c>
+      <c r="P59" s="3">
         <v>600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>600</v>
-      </c>
-      <c r="S59" s="3">
-        <v>500</v>
-      </c>
-      <c r="T59" s="3">
-        <v>500</v>
       </c>
       <c r="U59" s="3">
         <v>500</v>
       </c>
       <c r="V59" s="3">
-        <v>700</v>
-      </c>
-      <c r="W59" s="3" t="s">
-        <v>8</v>
+        <v>500</v>
+      </c>
+      <c r="W59" s="3">
+        <v>500</v>
       </c>
       <c r="X59" s="3">
         <v>700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Y59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z59" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4080,13 +4359,19 @@
       <c r="Y60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E61" s="3">
         <v>900</v>
@@ -4095,103 +4380,109 @@
         <v>900</v>
       </c>
       <c r="G61" s="3">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="H61" s="3">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="I61" s="3">
         <v>1100</v>
       </c>
       <c r="J61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L61" s="3">
         <v>1700</v>
-      </c>
-      <c r="K61" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L61" s="3">
-        <v>1000</v>
       </c>
       <c r="M61" s="3">
         <v>1000</v>
       </c>
       <c r="N61" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O61" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P61" s="3">
         <v>4100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>4300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>4400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>4600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>4700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>4900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>7300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>7600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>7900</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
         <v>8600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
         <v>300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
+        <v>300</v>
+      </c>
+      <c r="G62" s="3">
         <v>500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>400</v>
       </c>
-      <c r="H62" s="3">
-        <v>100</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
       <c r="J62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
         <v>400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>200</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>8</v>
       </c>
@@ -4201,11 +4492,11 @@
       <c r="R62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
-      </c>
-      <c r="T62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U62" s="3">
         <v>0</v>
@@ -4222,8 +4513,14 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,8 +4744,14 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4444,70 +4759,76 @@
         <v>25100</v>
       </c>
       <c r="E66" s="3">
+        <v>26100</v>
+      </c>
+      <c r="F66" s="3">
+        <v>25100</v>
+      </c>
+      <c r="G66" s="3">
         <v>26300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>26300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>26400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>26800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>26800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>27400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>27300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>27900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>28500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>31600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>32600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>33200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>33800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>34500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>36300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>38500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>39700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>40200</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z66" s="3">
         <v>43600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>44400</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +5004,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +5081,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,79 +5158,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>29700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>30400</v>
+      </c>
+      <c r="F72" s="3">
         <v>30000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>29800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>29700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>29200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>27900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>27600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>27600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>29200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>28500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>28300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>28200</v>
-      </c>
-      <c r="O72" s="3">
-        <v>28400</v>
-      </c>
-      <c r="P72" s="3">
-        <v>29000</v>
       </c>
       <c r="Q72" s="3">
         <v>28400</v>
       </c>
       <c r="R72" s="3">
-        <v>28500</v>
+        <v>29000</v>
       </c>
       <c r="S72" s="3">
         <v>28400</v>
       </c>
       <c r="T72" s="3">
+        <v>28500</v>
+      </c>
+      <c r="U72" s="3">
+        <v>28400</v>
+      </c>
+      <c r="V72" s="3">
         <v>29000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>29400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>29400</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z72" s="3">
         <v>29300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>30400</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,79 +5466,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>30500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>32400</v>
+      </c>
+      <c r="F76" s="3">
         <v>32000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>32000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>31500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>31300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>29700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>29100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>28100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>31200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>30800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>30000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>29200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>28300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>29400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>29100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>29100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>30000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>30300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>30500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>30000</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z76" s="3">
         <v>30900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>32100</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5620,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="3">
+        <v>500</v>
+      </c>
+      <c r="F81" s="3">
         <v>200</v>
       </c>
-      <c r="E81" s="3">
-        <v>100</v>
-      </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
+        <v>100</v>
+      </c>
+      <c r="H81" s="3">
         <v>400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>1400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>1100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>300</v>
       </c>
-      <c r="M81" s="3">
-        <v>100</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
+        <v>100</v>
+      </c>
+      <c r="P81" s="3">
         <v>400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
-        <v>100</v>
-      </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
+        <v>100</v>
+      </c>
+      <c r="U81" s="3">
         <v>-300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>300</v>
       </c>
-      <c r="U81" s="3">
-        <v>100</v>
-      </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
+        <v>100</v>
+      </c>
+      <c r="X81" s="3">
         <v>200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,13 +5812,15 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E83" s="3">
         <v>100</v>
@@ -5471,14 +5868,14 @@
         <v>100</v>
       </c>
       <c r="T83" s="3">
+        <v>100</v>
+      </c>
+      <c r="U83" s="3">
+        <v>100</v>
+      </c>
+      <c r="V83" s="3">
         <v>200</v>
       </c>
-      <c r="U83" s="3">
-        <v>100</v>
-      </c>
-      <c r="V83" s="3">
-        <v>100</v>
-      </c>
       <c r="W83" s="3">
         <v>100</v>
       </c>
@@ -5488,8 +5885,14 @@
       <c r="Y83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6270,91 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-1000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>2400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-1200</v>
-      </c>
-      <c r="S89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="T89" s="3">
-        <v>-500</v>
       </c>
       <c r="U89" s="3">
         <v>-300</v>
       </c>
       <c r="V89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="W89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X89" s="3">
         <v>-2100</v>
-      </c>
-      <c r="W89" s="3">
-        <v>-400</v>
-      </c>
-      <c r="X89" s="3">
-        <v>600</v>
       </c>
       <c r="Y89" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>600</v>
+      </c>
+      <c r="AA89" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,8 +6380,10 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5973,29 +6414,29 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3">
-        <v>0</v>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
@@ -6010,10 +6451,16 @@
         <v>0</v>
       </c>
       <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,79 +6607,91 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E94" s="3">
+        <v>100</v>
+      </c>
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>2000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-500</v>
       </c>
-      <c r="G94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>1600</v>
-      </c>
-      <c r="J94" s="3">
-        <v>500</v>
-      </c>
-      <c r="K94" s="3">
-        <v>2000</v>
       </c>
       <c r="L94" s="3">
         <v>500</v>
       </c>
       <c r="M94" s="3">
+        <v>2000</v>
+      </c>
+      <c r="N94" s="3">
+        <v>500</v>
+      </c>
+      <c r="O94" s="3">
         <v>2900</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>2300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>4000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>1800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>1100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>2500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>1200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6717,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6790,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,8 +7021,14 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6557,58 +7048,64 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>700</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>-3100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-2500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-1100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-2100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6678,75 +7175,87 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>1600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-500</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>1000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>2300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-1400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>1700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-1800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>1200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-1300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>1600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-1500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ACMTA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ACMTA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="92">
   <si>
     <t>ACMTA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,192 +665,206 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="3">
         <v>900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>900</v>
-      </c>
-      <c r="K8" s="3">
-        <v>1500</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M8" s="3">
         <v>1500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="P8" s="3">
         <v>800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>500</v>
-      </c>
-      <c r="S8" s="3">
-        <v>600</v>
-      </c>
-      <c r="T8" s="3">
-        <v>1000</v>
       </c>
       <c r="U8" s="3">
         <v>600</v>
       </c>
       <c r="V8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="W8" s="3">
+        <v>600</v>
+      </c>
+      <c r="X8" s="3">
         <v>800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>1100</v>
-      </c>
-      <c r="X8" s="3">
-        <v>1200</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>700</v>
       </c>
       <c r="Z8" s="3">
         <v>1200</v>
       </c>
       <c r="AA8" s="3">
+        <v>700</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AC8" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -873,10 +887,10 @@
         <v>0</v>
       </c>
       <c r="J9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L9" s="3">
         <v>100</v>
@@ -891,13 +905,13 @@
         <v>100</v>
       </c>
       <c r="P9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q9" s="3">
         <v>100</v>
       </c>
       <c r="R9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S9" s="3">
         <v>100</v>
@@ -906,19 +920,19 @@
         <v>100</v>
       </c>
       <c r="U9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X9" s="3">
         <v>0</v>
       </c>
       <c r="Y9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z9" s="3">
         <v>0</v>
@@ -926,85 +940,97 @@
       <c r="AA9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="3">
         <v>900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>1100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>1900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>800</v>
-      </c>
-      <c r="K10" s="3">
-        <v>1400</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M10" s="3">
         <v>1400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O10" s="3">
+        <v>1400</v>
+      </c>
+      <c r="P10" s="3">
         <v>700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>1300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>1000</v>
-      </c>
-      <c r="X10" s="3">
-        <v>1200</v>
-      </c>
-      <c r="Y10" s="3">
-        <v>700</v>
       </c>
       <c r="Z10" s="3">
         <v>1200</v>
       </c>
       <c r="AA10" s="3">
+        <v>700</v>
+      </c>
+      <c r="AB10" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AC10" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1058,10 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1137,14 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1220,14 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1263,8 +1303,14 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1386,14 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1418,176 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>600</v>
+      </c>
+      <c r="F17" s="3">
         <v>800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>800</v>
       </c>
-      <c r="M17" s="3">
-        <v>100</v>
-      </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
+        <v>100</v>
+      </c>
+      <c r="P17" s="3">
         <v>600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>-200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="3">
         <v>700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>1700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>900</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O18" s="3">
         <v>1400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>700</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
         <v>200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,19 +1615,21 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
+      <c r="E20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1578,14 +1646,14 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>8</v>
+      <c r="L20" s="3">
+        <v>0</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
+      <c r="N20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O20" s="3">
         <v>0</v>
@@ -1626,85 +1694,97 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="3">
         <v>800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>1800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>900</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O21" s="3">
         <v>1400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>800</v>
       </c>
-      <c r="S21" s="3">
-        <v>0</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3">
         <v>300</v>
       </c>
-      <c r="U21" s="3">
-        <v>0</v>
-      </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
+        <v>0</v>
+      </c>
+      <c r="X21" s="3">
         <v>600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>400</v>
       </c>
-      <c r="Y21" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="3">
         <v>900</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1745,10 +1825,10 @@
         <v>0</v>
       </c>
       <c r="P22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R22" s="3">
         <v>100</v>
@@ -1780,85 +1860,97 @@
       <c r="AA22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G23" s="3">
         <v>700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>200</v>
       </c>
-      <c r="G23" s="3">
-        <v>100</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
+        <v>100</v>
+      </c>
+      <c r="J23" s="3">
         <v>500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>1700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-2000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>1400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-100</v>
       </c>
-      <c r="T23" s="3">
-        <v>100</v>
-      </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
+        <v>100</v>
+      </c>
+      <c r="W23" s="3">
         <v>-200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>400</v>
       </c>
-      <c r="W23" s="3">
-        <v>100</v>
-      </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z23" s="3">
         <v>200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1866,76 +1958,82 @@
         <v>-100</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>100</v>
+      </c>
+      <c r="K24" s="3">
         <v>400</v>
       </c>
-      <c r="J24" s="3">
-        <v>100</v>
-      </c>
-      <c r="K24" s="3">
-        <v>100</v>
-      </c>
       <c r="L24" s="3">
+        <v>100</v>
+      </c>
+      <c r="M24" s="3">
+        <v>100</v>
+      </c>
+      <c r="N24" s="3">
         <v>-400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>300</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R24" s="3">
         <v>100</v>
       </c>
       <c r="S24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U24" s="3">
         <v>0</v>
       </c>
       <c r="V24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W24" s="3">
         <v>0</v>
       </c>
       <c r="X24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
         <v>-100</v>
       </c>
-      <c r="Z24" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,8 +2109,14 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2020,76 +2124,82 @@
         <v>8</v>
       </c>
       <c r="E26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G26" s="3">
         <v>500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>200</v>
       </c>
-      <c r="G26" s="3">
-        <v>100</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
+        <v>100</v>
+      </c>
+      <c r="J26" s="3">
         <v>400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>1400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>1100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>300</v>
       </c>
-      <c r="O26" s="3">
-        <v>100</v>
-      </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
+        <v>100</v>
+      </c>
+      <c r="R26" s="3">
         <v>400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-100</v>
       </c>
-      <c r="T26" s="3">
-        <v>100</v>
-      </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
+        <v>100</v>
+      </c>
+      <c r="W26" s="3">
         <v>-200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>300</v>
       </c>
-      <c r="W26" s="3">
-        <v>100</v>
-      </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z26" s="3">
         <v>200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>700</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2097,76 +2207,82 @@
         <v>8</v>
       </c>
       <c r="E27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G27" s="3">
         <v>500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>200</v>
       </c>
-      <c r="G27" s="3">
-        <v>100</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
+        <v>100</v>
+      </c>
+      <c r="J27" s="3">
         <v>400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>1400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>1100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>300</v>
       </c>
-      <c r="O27" s="3">
-        <v>100</v>
-      </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
+        <v>100</v>
+      </c>
+      <c r="R27" s="3">
         <v>400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-100</v>
       </c>
-      <c r="T27" s="3">
-        <v>100</v>
-      </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
+        <v>100</v>
+      </c>
+      <c r="W27" s="3">
         <v>-200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>300</v>
       </c>
-      <c r="W27" s="3">
-        <v>100</v>
-      </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z27" s="3">
         <v>200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2358,14 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2268,11 +2390,11 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -2286,26 +2408,26 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
+      <c r="U29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
+      <c r="W29" s="3">
+        <v>0</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
@@ -2319,8 +2441,14 @@
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2524,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,19 +2607,25 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
+      <c r="E32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -2502,14 +2642,14 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>8</v>
+      <c r="L32" s="3">
+        <v>0</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
+      <c r="N32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O32" s="3">
         <v>0</v>
@@ -2550,8 +2690,14 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2559,76 +2705,82 @@
         <v>8</v>
       </c>
       <c r="E33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G33" s="3">
         <v>500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>200</v>
       </c>
-      <c r="G33" s="3">
-        <v>100</v>
-      </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
+        <v>100</v>
+      </c>
+      <c r="J33" s="3">
         <v>400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>1400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>1100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>300</v>
       </c>
-      <c r="O33" s="3">
-        <v>100</v>
-      </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
+        <v>100</v>
+      </c>
+      <c r="R33" s="3">
         <v>400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-100</v>
       </c>
-      <c r="T33" s="3">
-        <v>100</v>
-      </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
+        <v>100</v>
+      </c>
+      <c r="W33" s="3">
         <v>-300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>300</v>
       </c>
-      <c r="W33" s="3">
-        <v>100</v>
-      </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z33" s="3">
         <v>200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>700</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,8 +2856,14 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2713,158 +2871,170 @@
         <v>8</v>
       </c>
       <c r="E35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G35" s="3">
         <v>500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>200</v>
       </c>
-      <c r="G35" s="3">
-        <v>100</v>
-      </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
+        <v>100</v>
+      </c>
+      <c r="J35" s="3">
         <v>400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>1400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>1100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>300</v>
       </c>
-      <c r="O35" s="3">
-        <v>100</v>
-      </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
+        <v>100</v>
+      </c>
+      <c r="R35" s="3">
         <v>400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-100</v>
       </c>
-      <c r="T35" s="3">
-        <v>100</v>
-      </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
+        <v>100</v>
+      </c>
+      <c r="W35" s="3">
         <v>-300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>300</v>
       </c>
-      <c r="W35" s="3">
-        <v>100</v>
-      </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z35" s="3">
         <v>200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>700</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +3062,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,85 +3093,93 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F41" s="3">
         <v>1500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>3100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>2900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>2500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>2500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>2800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>1200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>1200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>1600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>3400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>2200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>1900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>2100</v>
       </c>
-      <c r="Y41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB41" s="3">
         <v>1800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,8 +3255,14 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3096,28 +3282,28 @@
         <v>100</v>
       </c>
       <c r="I43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
       </c>
       <c r="P43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
@@ -3126,7 +3312,7 @@
         <v>100</v>
       </c>
       <c r="S43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T43" s="3">
         <v>100</v>
@@ -3143,17 +3329,23 @@
       <c r="X43" s="3">
         <v>100</v>
       </c>
-      <c r="Y43" s="3" t="s">
-        <v>8</v>
+      <c r="Y43" s="3">
+        <v>100</v>
       </c>
       <c r="Z43" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB43" s="3">
         <v>200</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,8 +3421,14 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3306,8 +3504,14 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3383,90 +3587,102 @@
       <c r="AA46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>38000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>41100</v>
+      </c>
+      <c r="F47" s="3">
         <v>44300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>45900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>45900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>46200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>47500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>46900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>45400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>44200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>43800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>48100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>48700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>48400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>50100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>48900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>51700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>50300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>50800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>52100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>54800</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>56300</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>56200</v>
       </c>
-      <c r="Y47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB47" s="3">
         <v>61300</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AC47" s="3">
         <v>62900</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="E48" s="3">
         <v>4300</v>
@@ -3487,10 +3703,10 @@
         <v>4300</v>
       </c>
       <c r="K48" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="L48" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="M48" s="3">
         <v>4400</v>
@@ -3499,46 +3715,52 @@
         <v>4400</v>
       </c>
       <c r="O48" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="P48" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="Q48" s="3">
         <v>4500</v>
       </c>
       <c r="R48" s="3">
+        <v>4500</v>
+      </c>
+      <c r="S48" s="3">
+        <v>4500</v>
+      </c>
+      <c r="T48" s="3">
         <v>4600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>4600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>4700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>4700</v>
-      </c>
-      <c r="V48" s="3">
-        <v>4800</v>
-      </c>
-      <c r="W48" s="3">
-        <v>4800</v>
       </c>
       <c r="X48" s="3">
         <v>4800</v>
       </c>
-      <c r="Y48" s="3" t="s">
-        <v>8</v>
+      <c r="Y48" s="3">
+        <v>4800</v>
       </c>
       <c r="Z48" s="3">
+        <v>4800</v>
+      </c>
+      <c r="AA48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB48" s="3">
         <v>5000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3605,17 +3827,23 @@
       <c r="X49" s="3">
         <v>1900</v>
       </c>
-      <c r="Y49" s="3" t="s">
-        <v>8</v>
+      <c r="Y49" s="3">
+        <v>1900</v>
       </c>
       <c r="Z49" s="3">
         <v>1900</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AA49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB49" s="3">
         <v>1900</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3919,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,19 +4002,25 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>100</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>8</v>
+        <v>800</v>
+      </c>
+      <c r="E52" s="3">
+        <v>500</v>
+      </c>
+      <c r="F52" s="3">
+        <v>100</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>8</v>
@@ -3797,26 +4037,26 @@
       <c r="K52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N52" s="3">
         <v>400</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
       </c>
       <c r="Q52" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="R52" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="S52" s="3">
         <v>300</v>
@@ -3825,28 +4065,34 @@
         <v>300</v>
       </c>
       <c r="U52" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="V52" s="3">
+        <v>300</v>
+      </c>
+      <c r="W52" s="3">
+        <v>100</v>
+      </c>
+      <c r="X52" s="3">
         <v>700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>900</v>
       </c>
-      <c r="Y52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB52" s="3">
         <v>300</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4168,97 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>51400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>53300</v>
+      </c>
+      <c r="F54" s="3">
         <v>55600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>58500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>57200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>58300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>57700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>57700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>56500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>55900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>55500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>58500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>58700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>58400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>60900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>60900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>62600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>62900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>63600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>66300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>68800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>70200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>70200</v>
       </c>
-      <c r="Y54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB54" s="3">
         <v>74500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>76500</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4286,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,43 +4317,45 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F57" s="3">
         <v>1000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1100</v>
-      </c>
-      <c r="K57" s="3">
-        <v>900</v>
-      </c>
-      <c r="L57" s="3">
-        <v>600</v>
       </c>
       <c r="M57" s="3">
         <v>900</v>
       </c>
       <c r="N57" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="O57" s="3">
         <v>900</v>
@@ -4102,40 +4364,46 @@
         <v>900</v>
       </c>
       <c r="Q57" s="3">
+        <v>900</v>
+      </c>
+      <c r="R57" s="3">
+        <v>900</v>
+      </c>
+      <c r="S57" s="3">
         <v>1200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>1200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>1700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>1000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>1300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>900</v>
       </c>
-      <c r="Y57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB57" s="3">
         <v>1500</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4211,22 +4479,28 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>500</v>
+      </c>
+      <c r="E59" s="3">
         <v>400</v>
-      </c>
-      <c r="E59" s="3">
-        <v>600</v>
       </c>
       <c r="F59" s="3">
         <v>400</v>
       </c>
       <c r="G59" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="H59" s="3">
         <v>400</v>
@@ -4235,61 +4509,67 @@
         <v>400</v>
       </c>
       <c r="J59" s="3">
+        <v>400</v>
+      </c>
+      <c r="K59" s="3">
+        <v>400</v>
+      </c>
+      <c r="L59" s="3">
         <v>500</v>
-      </c>
-      <c r="K59" s="3">
-        <v>500</v>
-      </c>
-      <c r="L59" s="3">
-        <v>400</v>
       </c>
       <c r="M59" s="3">
         <v>500</v>
       </c>
       <c r="N59" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="O59" s="3">
         <v>500</v>
       </c>
       <c r="P59" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>500</v>
+      </c>
+      <c r="R59" s="3">
         <v>600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>600</v>
-      </c>
-      <c r="U59" s="3">
-        <v>500</v>
-      </c>
-      <c r="V59" s="3">
-        <v>500</v>
       </c>
       <c r="W59" s="3">
         <v>500</v>
       </c>
       <c r="X59" s="3">
-        <v>700</v>
-      </c>
-      <c r="Y59" s="3" t="s">
-        <v>8</v>
+        <v>500</v>
+      </c>
+      <c r="Y59" s="3">
+        <v>500</v>
       </c>
       <c r="Z59" s="3">
         <v>700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AA59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB59" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4365,8 +4645,14 @@
       <c r="AA60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4374,10 +4660,10 @@
         <v>800</v>
       </c>
       <c r="E61" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="F61" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="G61" s="3">
         <v>900</v>
@@ -4386,64 +4672,70 @@
         <v>900</v>
       </c>
       <c r="I61" s="3">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="J61" s="3">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="K61" s="3">
         <v>1100</v>
       </c>
       <c r="L61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N61" s="3">
         <v>1700</v>
-      </c>
-      <c r="M61" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N61" s="3">
-        <v>1000</v>
       </c>
       <c r="O61" s="3">
         <v>1000</v>
       </c>
       <c r="P61" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R61" s="3">
         <v>4100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>4300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>4400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>4600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>4700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>4900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>7300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>7600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>7900</v>
       </c>
-      <c r="Y61" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="3">
         <v>8600</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4451,44 +4743,44 @@
         <v>0</v>
       </c>
       <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
         <v>300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>400</v>
       </c>
-      <c r="J62" s="3">
-        <v>100</v>
-      </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
       <c r="L62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
         <v>400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>200</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>8</v>
       </c>
@@ -4498,11 +4790,11 @@
       <c r="T62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U62" s="3">
-        <v>0</v>
-      </c>
-      <c r="V62" s="3">
-        <v>0</v>
+      <c r="U62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W62" s="3">
         <v>0</v>
@@ -4519,8 +4811,14 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4894,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4977,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +5060,97 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>25100</v>
+        <v>24200</v>
       </c>
       <c r="E66" s="3">
-        <v>26100</v>
+        <v>24900</v>
       </c>
       <c r="F66" s="3">
         <v>25100</v>
       </c>
       <c r="G66" s="3">
+        <v>26100</v>
+      </c>
+      <c r="H66" s="3">
+        <v>25100</v>
+      </c>
+      <c r="I66" s="3">
         <v>26300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>26300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>26400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>26800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>26800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>27400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>27300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>27900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>28500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>31600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>32600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>33200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>33800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>34500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>36300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>38500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>39700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>40200</v>
       </c>
-      <c r="Y66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB66" s="3">
         <v>43600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>44400</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5178,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5257,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5340,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5423,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5506,97 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>28600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>29000</v>
+      </c>
+      <c r="F72" s="3">
         <v>29700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>30400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>30000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>29800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>29700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>29200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>27900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>27600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>27600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>29200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>28500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>28300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>28200</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>28400</v>
-      </c>
-      <c r="R72" s="3">
-        <v>29000</v>
       </c>
       <c r="S72" s="3">
         <v>28400</v>
       </c>
       <c r="T72" s="3">
-        <v>28500</v>
+        <v>29000</v>
       </c>
       <c r="U72" s="3">
         <v>28400</v>
       </c>
       <c r="V72" s="3">
+        <v>28500</v>
+      </c>
+      <c r="W72" s="3">
+        <v>28400</v>
+      </c>
+      <c r="X72" s="3">
         <v>29000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>29400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>29400</v>
       </c>
-      <c r="Y72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB72" s="3">
         <v>29300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>30400</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5672,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5755,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5838,97 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>27300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>28500</v>
+      </c>
+      <c r="F76" s="3">
         <v>30500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>32400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>32000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>32000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>31500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>31300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>29700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>29100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>28100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>31200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>30800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>30000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>29200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>28300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>29400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>29100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>29100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>30000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>30300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>30500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>30000</v>
       </c>
-      <c r="Y76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB76" s="3">
         <v>30900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>32100</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,90 +6004,102 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5717,76 +6107,82 @@
         <v>8</v>
       </c>
       <c r="E81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G81" s="3">
         <v>500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>200</v>
       </c>
-      <c r="G81" s="3">
-        <v>100</v>
-      </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
+        <v>100</v>
+      </c>
+      <c r="J81" s="3">
         <v>400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>1400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>1100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>300</v>
       </c>
-      <c r="O81" s="3">
-        <v>100</v>
-      </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
+        <v>100</v>
+      </c>
+      <c r="R81" s="3">
         <v>400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-100</v>
       </c>
-      <c r="T81" s="3">
-        <v>100</v>
-      </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
+        <v>100</v>
+      </c>
+      <c r="W81" s="3">
         <v>-300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>300</v>
       </c>
-      <c r="W81" s="3">
-        <v>100</v>
-      </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z81" s="3">
         <v>200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>700</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,19 +6210,21 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G83" s="3">
         <v>100</v>
@@ -5874,14 +6272,14 @@
         <v>100</v>
       </c>
       <c r="V83" s="3">
+        <v>100</v>
+      </c>
+      <c r="W83" s="3">
+        <v>100</v>
+      </c>
+      <c r="X83" s="3">
         <v>200</v>
       </c>
-      <c r="W83" s="3">
-        <v>100</v>
-      </c>
-      <c r="X83" s="3">
-        <v>100</v>
-      </c>
       <c r="Y83" s="3">
         <v>100</v>
       </c>
@@ -5891,8 +6289,14 @@
       <c r="AA83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6372,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6455,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6538,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6621,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6704,97 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>1100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>2400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-1200</v>
-      </c>
-      <c r="U89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="V89" s="3">
-        <v>-500</v>
       </c>
       <c r="W89" s="3">
         <v>-300</v>
       </c>
       <c r="X89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Y89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z89" s="3">
         <v>-2100</v>
-      </c>
-      <c r="Y89" s="3">
-        <v>-400</v>
-      </c>
-      <c r="Z89" s="3">
-        <v>600</v>
       </c>
       <c r="AA89" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>600</v>
+      </c>
+      <c r="AC89" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6822,10 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6420,29 +6862,29 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
-      <c r="S91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
-      <c r="V91" s="3">
-        <v>0</v>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W91" s="3">
         <v>0</v>
@@ -6457,10 +6899,16 @@
         <v>0</v>
       </c>
       <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6984,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +7067,97 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E94" s="3">
+        <v>600</v>
+      </c>
+      <c r="F94" s="3">
         <v>-400</v>
       </c>
-      <c r="E94" s="3">
-        <v>100</v>
-      </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
+        <v>100</v>
+      </c>
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>2000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-500</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>1600</v>
-      </c>
-      <c r="L94" s="3">
-        <v>500</v>
-      </c>
-      <c r="M94" s="3">
-        <v>2000</v>
       </c>
       <c r="N94" s="3">
         <v>500</v>
       </c>
       <c r="O94" s="3">
+        <v>2000</v>
+      </c>
+      <c r="P94" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q94" s="3">
         <v>2900</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>2300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-2300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>4000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>1800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>1100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>2500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>1200</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +7185,10 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7264,14 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7347,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7430,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,8 +7513,14 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7054,58 +7546,64 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>-1300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>700</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-3100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-2500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-1100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-2100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,81 +7679,93 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>300</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>1200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-1000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>1600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-500</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>1000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>2300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>1700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-1800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>1200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>1600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-500</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>-1500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ACMTA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ACMTA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
   <si>
     <t>ACMTA</t>
   </si>
@@ -785,8 +785,8 @@
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>8</v>
+      <c r="D8" s="3">
+        <v>200</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>8</v>
@@ -951,8 +951,8 @@
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>8</v>
+      <c r="D10" s="3">
+        <v>200</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>8</v>
@@ -1508,8 +1508,8 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>-500</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>8</v>
@@ -1622,8 +1622,8 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>8</v>
@@ -1705,8 +1705,8 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>-400</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>8</v>
@@ -2120,8 +2120,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>-400</v>
       </c>
       <c r="E26" s="3">
         <v>-800</v>
@@ -2203,8 +2203,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>-400</v>
       </c>
       <c r="E27" s="3">
         <v>-800</v>
@@ -2618,8 +2618,8 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>8</v>
@@ -2701,8 +2701,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>-400</v>
       </c>
       <c r="E33" s="3">
         <v>-800</v>
@@ -2867,8 +2867,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>-400</v>
       </c>
       <c r="E35" s="3">
         <v>-800</v>
@@ -6103,8 +6103,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>-400</v>
       </c>
       <c r="E81" s="3">
         <v>-800</v>

--- a/AAII_Financials/Quarterly/ACMTA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ACMTA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="92">
   <si>
     <t>ACMTA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,219 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>400</v>
+      </c>
+      <c r="F8" s="3">
         <v>200</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="G8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="3">
         <v>900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>900</v>
-      </c>
-      <c r="M8" s="3">
-        <v>1500</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O8" s="3">
         <v>1500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R8" s="3">
         <v>800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>1300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>500</v>
-      </c>
-      <c r="U8" s="3">
-        <v>600</v>
-      </c>
-      <c r="V8" s="3">
-        <v>1000</v>
       </c>
       <c r="W8" s="3">
         <v>600</v>
       </c>
       <c r="X8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>600</v>
+      </c>
+      <c r="Z8" s="3">
         <v>800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>1100</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>1200</v>
-      </c>
-      <c r="AA8" s="3">
-        <v>700</v>
       </c>
       <c r="AB8" s="3">
         <v>1200</v>
       </c>
       <c r="AC8" s="3">
+        <v>700</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AE8" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -893,10 +906,10 @@
         <v>0</v>
       </c>
       <c r="L9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N9" s="3">
         <v>100</v>
@@ -911,13 +924,13 @@
         <v>100</v>
       </c>
       <c r="R9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S9" s="3">
         <v>100</v>
       </c>
       <c r="T9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U9" s="3">
         <v>100</v>
@@ -926,19 +939,19 @@
         <v>100</v>
       </c>
       <c r="W9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="3">
         <v>0</v>
       </c>
       <c r="AA9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB9" s="3">
         <v>0</v>
@@ -946,91 +959,103 @@
       <c r="AC9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>400</v>
+      </c>
+      <c r="F10" s="3">
         <v>200</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="G10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="3">
         <v>900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>1900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>800</v>
-      </c>
-      <c r="M10" s="3">
-        <v>1400</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O10" s="3">
         <v>1400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R10" s="3">
         <v>700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>1300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>1000</v>
-      </c>
-      <c r="Z10" s="3">
-        <v>1200</v>
-      </c>
-      <c r="AA10" s="3">
-        <v>700</v>
       </c>
       <c r="AB10" s="3">
         <v>1200</v>
       </c>
       <c r="AC10" s="3">
+        <v>700</v>
+      </c>
+      <c r="AD10" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AE10" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1060,8 +1085,10 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1143,8 +1170,14 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,8 +1259,14 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1309,8 +1348,14 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1392,8 +1437,14 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1420,174 +1471,188 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>500</v>
+      </c>
+      <c r="F17" s="3">
         <v>700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>800</v>
       </c>
-      <c r="O17" s="3">
-        <v>100</v>
-      </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
+        <v>100</v>
+      </c>
+      <c r="R17" s="3">
         <v>600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>-200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>800</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>300</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AE17" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
         <v>-500</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="E18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="3">
         <v>700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>1700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>900</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q18" s="3">
         <v>1400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>700</v>
       </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
         <v>200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>-100</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>900</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AE18" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1617,25 +1682,27 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
         <v>0</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
@@ -1652,14 +1719,14 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>8</v>
+      <c r="N20" s="3">
+        <v>0</v>
       </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
+      <c r="P20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
@@ -1700,91 +1767,103 @@
       <c r="AC20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
         <v>-400</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" s="3">
         <v>800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>1800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>900</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q21" s="3">
         <v>1400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>800</v>
       </c>
-      <c r="U21" s="3">
-        <v>0</v>
-      </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
+        <v>0</v>
+      </c>
+      <c r="X21" s="3">
         <v>300</v>
       </c>
-      <c r="W21" s="3">
-        <v>0</v>
-      </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="3">
         <v>600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>400</v>
       </c>
-      <c r="AA21" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="3">
         <v>900</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AE21" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1831,10 +1910,10 @@
         <v>0</v>
       </c>
       <c r="R22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T22" s="3">
         <v>100</v>
@@ -1866,8 +1945,14 @@
       <c r="AC22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1875,82 +1960,88 @@
         <v>-500</v>
       </c>
       <c r="E23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G23" s="3">
         <v>-800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>200</v>
       </c>
-      <c r="I23" s="3">
-        <v>100</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
+        <v>100</v>
+      </c>
+      <c r="L23" s="3">
         <v>500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>1700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-2000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>1400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-100</v>
       </c>
-      <c r="V23" s="3">
-        <v>100</v>
-      </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>400</v>
       </c>
-      <c r="Y23" s="3">
-        <v>100</v>
-      </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB23" s="3">
         <v>200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>700</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1964,76 +2055,82 @@
         <v>-100</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>100</v>
+      </c>
+      <c r="M24" s="3">
         <v>400</v>
       </c>
-      <c r="L24" s="3">
-        <v>100</v>
-      </c>
-      <c r="M24" s="3">
-        <v>100</v>
-      </c>
       <c r="N24" s="3">
+        <v>100</v>
+      </c>
+      <c r="O24" s="3">
+        <v>100</v>
+      </c>
+      <c r="P24" s="3">
         <v>-400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>300</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T24" s="3">
         <v>100</v>
       </c>
       <c r="U24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W24" s="3">
         <v>0</v>
       </c>
       <c r="X24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y24" s="3">
         <v>0</v>
       </c>
       <c r="Z24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3">
         <v>-100</v>
       </c>
-      <c r="AB24" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2115,8 +2212,14 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2124,82 +2227,88 @@
         <v>-400</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G26" s="3">
         <v>-800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>200</v>
       </c>
-      <c r="I26" s="3">
-        <v>100</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
+        <v>100</v>
+      </c>
+      <c r="L26" s="3">
         <v>400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>1400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-1600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>1100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>300</v>
       </c>
-      <c r="Q26" s="3">
-        <v>100</v>
-      </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
+        <v>100</v>
+      </c>
+      <c r="T26" s="3">
         <v>400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-100</v>
       </c>
-      <c r="V26" s="3">
-        <v>100</v>
-      </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>300</v>
       </c>
-      <c r="Y26" s="3">
-        <v>100</v>
-      </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB26" s="3">
         <v>200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>-100</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>700</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AE26" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2207,82 +2316,88 @@
         <v>-400</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G27" s="3">
         <v>-800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>200</v>
       </c>
-      <c r="I27" s="3">
-        <v>100</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
+        <v>100</v>
+      </c>
+      <c r="L27" s="3">
         <v>400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>1400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-1600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>1100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>300</v>
       </c>
-      <c r="Q27" s="3">
-        <v>100</v>
-      </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
+        <v>100</v>
+      </c>
+      <c r="T27" s="3">
         <v>400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-100</v>
       </c>
-      <c r="V27" s="3">
-        <v>100</v>
-      </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>300</v>
       </c>
-      <c r="Y27" s="3">
-        <v>100</v>
-      </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB27" s="3">
         <v>200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-100</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>700</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AE27" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2364,8 +2479,14 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2396,11 +2517,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -2414,26 +2535,26 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
+      <c r="S29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
+      <c r="U29" s="3">
+        <v>0</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
+      <c r="W29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y29" s="3" t="s">
-        <v>8</v>
+      <c r="Y29" s="3">
+        <v>0</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>8</v>
@@ -2447,8 +2568,14 @@
       <c r="AC29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2657,14 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2613,25 +2746,31 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
         <v>0</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
@@ -2648,14 +2787,14 @@
       <c r="M32" s="3">
         <v>0</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>8</v>
+      <c r="N32" s="3">
+        <v>0</v>
       </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
+      <c r="P32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q32" s="3">
         <v>0</v>
@@ -2696,8 +2835,14 @@
       <c r="AC32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2705,82 +2850,88 @@
         <v>-400</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G33" s="3">
         <v>-800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>200</v>
       </c>
-      <c r="I33" s="3">
-        <v>100</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
+        <v>100</v>
+      </c>
+      <c r="L33" s="3">
         <v>400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>1400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-1600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>1100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>300</v>
       </c>
-      <c r="Q33" s="3">
-        <v>100</v>
-      </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
+        <v>100</v>
+      </c>
+      <c r="T33" s="3">
         <v>400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-100</v>
       </c>
-      <c r="V33" s="3">
-        <v>100</v>
-      </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>300</v>
       </c>
-      <c r="Y33" s="3">
-        <v>100</v>
-      </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB33" s="3">
         <v>200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-100</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>700</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AE33" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2862,8 +3013,14 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2871,170 +3028,182 @@
         <v>-400</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G35" s="3">
         <v>-800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>200</v>
       </c>
-      <c r="I35" s="3">
-        <v>100</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
+        <v>100</v>
+      </c>
+      <c r="L35" s="3">
         <v>400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>1400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-1600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>1100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>300</v>
       </c>
-      <c r="Q35" s="3">
-        <v>100</v>
-      </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
+        <v>100</v>
+      </c>
+      <c r="T35" s="3">
         <v>400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-100</v>
       </c>
-      <c r="V35" s="3">
-        <v>100</v>
-      </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>300</v>
       </c>
-      <c r="Y35" s="3">
-        <v>100</v>
-      </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB35" s="3">
         <v>200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-100</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>700</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AE35" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3064,8 +3233,10 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3095,91 +3266,99 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2800</v>
+        <v>1500</v>
       </c>
       <c r="E41" s="3">
         <v>1800</v>
       </c>
       <c r="F41" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G41" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H41" s="3">
         <v>1500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>3100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>2900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>2500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>2500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>1000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>1400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>2800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>1200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>1200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>1600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>3400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>2200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>1900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>2100</v>
       </c>
-      <c r="AA41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD41" s="3">
         <v>1800</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AE41" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3261,8 +3440,14 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3288,28 +3473,28 @@
         <v>100</v>
       </c>
       <c r="K43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
       </c>
       <c r="R43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
@@ -3318,7 +3503,7 @@
         <v>100</v>
       </c>
       <c r="U43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V43" s="3">
         <v>100</v>
@@ -3335,17 +3520,23 @@
       <c r="Z43" s="3">
         <v>100</v>
       </c>
-      <c r="AA43" s="3" t="s">
-        <v>8</v>
+      <c r="AA43" s="3">
+        <v>100</v>
       </c>
       <c r="AB43" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD43" s="3">
         <v>200</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AE43" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3427,8 +3618,14 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3510,8 +3707,14 @@
       <c r="AC45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3593,102 +3796,114 @@
       <c r="AC46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>38600</v>
+      </c>
+      <c r="E47" s="3">
+        <v>39500</v>
+      </c>
+      <c r="F47" s="3">
         <v>38000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>41100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>44300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>45900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>45900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>46200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>47500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>46900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>45400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>44200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>43800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>48100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>48700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>48400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>50100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>48900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>51700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>50300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>50800</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>52100</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>54800</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>56300</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>56200</v>
       </c>
-      <c r="AA47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD47" s="3">
         <v>61300</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AE47" s="3">
         <v>62900</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E48" s="3">
         <v>4200</v>
       </c>
-      <c r="E48" s="3">
-        <v>4300</v>
-      </c>
       <c r="F48" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="G48" s="3">
         <v>4300</v>
@@ -3709,10 +3924,10 @@
         <v>4300</v>
       </c>
       <c r="M48" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="N48" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="O48" s="3">
         <v>4400</v>
@@ -3721,46 +3936,52 @@
         <v>4400</v>
       </c>
       <c r="Q48" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="R48" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="S48" s="3">
         <v>4500</v>
       </c>
       <c r="T48" s="3">
+        <v>4500</v>
+      </c>
+      <c r="U48" s="3">
+        <v>4500</v>
+      </c>
+      <c r="V48" s="3">
         <v>4600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>4600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>4700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>4700</v>
-      </c>
-      <c r="X48" s="3">
-        <v>4800</v>
-      </c>
-      <c r="Y48" s="3">
-        <v>4800</v>
       </c>
       <c r="Z48" s="3">
         <v>4800</v>
       </c>
-      <c r="AA48" s="3" t="s">
-        <v>8</v>
+      <c r="AA48" s="3">
+        <v>4800</v>
       </c>
       <c r="AB48" s="3">
+        <v>4800</v>
+      </c>
+      <c r="AC48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD48" s="3">
         <v>5000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AE48" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3833,17 +4054,23 @@
       <c r="Z49" s="3">
         <v>1900</v>
       </c>
-      <c r="AA49" s="3" t="s">
-        <v>8</v>
+      <c r="AA49" s="3">
+        <v>1900</v>
       </c>
       <c r="AB49" s="3">
         <v>1900</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AC49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD49" s="3">
         <v>1900</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3925,8 +4152,14 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4008,25 +4241,31 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>600</v>
+      </c>
+      <c r="E52" s="3">
+        <v>600</v>
+      </c>
+      <c r="F52" s="3">
         <v>800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>500</v>
       </c>
-      <c r="F52" s="3">
-        <v>100</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>8</v>
+      <c r="H52" s="3">
+        <v>100</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>8</v>
@@ -4043,26 +4282,26 @@
       <c r="M52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P52" s="3">
         <v>400</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P52" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="Q52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
       </c>
       <c r="S52" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="T52" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="U52" s="3">
         <v>300</v>
@@ -4071,28 +4310,34 @@
         <v>300</v>
       </c>
       <c r="W52" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="X52" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z52" s="3">
         <v>700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>900</v>
       </c>
-      <c r="AA52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD52" s="3">
         <v>300</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AE52" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4174,91 +4419,103 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>50200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>51300</v>
+      </c>
+      <c r="F54" s="3">
         <v>51400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>53300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>55600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>58500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>57200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>58300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>57700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>57700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>56500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>55900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>55500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>58500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>58700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>58400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>60900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>60900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>62600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>62900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>63600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>66300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>68800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>70200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>70200</v>
       </c>
-      <c r="AA54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD54" s="3">
         <v>74500</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AE54" s="3">
         <v>76500</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4288,8 +4545,10 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4319,49 +4578,51 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E57" s="3">
         <v>1100</v>
       </c>
       <c r="F57" s="3">
+        <v>800</v>
+      </c>
+      <c r="G57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H57" s="3">
         <v>1000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1100</v>
-      </c>
-      <c r="M57" s="3">
-        <v>900</v>
-      </c>
-      <c r="N57" s="3">
-        <v>600</v>
       </c>
       <c r="O57" s="3">
         <v>900</v>
       </c>
       <c r="P57" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="Q57" s="3">
         <v>900</v>
@@ -4370,40 +4631,46 @@
         <v>900</v>
       </c>
       <c r="S57" s="3">
+        <v>900</v>
+      </c>
+      <c r="T57" s="3">
+        <v>900</v>
+      </c>
+      <c r="U57" s="3">
         <v>1200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>1200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>1700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>1000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>1300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>900</v>
       </c>
-      <c r="AA57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD57" s="3">
         <v>1500</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AE57" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4485,28 +4752,34 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E59" s="3">
         <v>400</v>
       </c>
       <c r="F59" s="3">
+        <v>500</v>
+      </c>
+      <c r="G59" s="3">
         <v>400</v>
-      </c>
-      <c r="G59" s="3">
-        <v>600</v>
       </c>
       <c r="H59" s="3">
         <v>400</v>
       </c>
       <c r="I59" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="J59" s="3">
         <v>400</v>
@@ -4515,61 +4788,67 @@
         <v>400</v>
       </c>
       <c r="L59" s="3">
+        <v>400</v>
+      </c>
+      <c r="M59" s="3">
+        <v>400</v>
+      </c>
+      <c r="N59" s="3">
         <v>500</v>
-      </c>
-      <c r="M59" s="3">
-        <v>500</v>
-      </c>
-      <c r="N59" s="3">
-        <v>400</v>
       </c>
       <c r="O59" s="3">
         <v>500</v>
       </c>
       <c r="P59" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q59" s="3">
         <v>500</v>
       </c>
       <c r="R59" s="3">
+        <v>500</v>
+      </c>
+      <c r="S59" s="3">
+        <v>500</v>
+      </c>
+      <c r="T59" s="3">
         <v>600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>600</v>
-      </c>
-      <c r="W59" s="3">
-        <v>500</v>
-      </c>
-      <c r="X59" s="3">
-        <v>500</v>
       </c>
       <c r="Y59" s="3">
         <v>500</v>
       </c>
       <c r="Z59" s="3">
-        <v>700</v>
-      </c>
-      <c r="AA59" s="3" t="s">
-        <v>8</v>
+        <v>500</v>
+      </c>
+      <c r="AA59" s="3">
+        <v>500</v>
       </c>
       <c r="AB59" s="3">
         <v>700</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AC59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD59" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4651,8 +4930,14 @@
       <c r="AC60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4666,10 +4951,10 @@
         <v>800</v>
       </c>
       <c r="G61" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="H61" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="I61" s="3">
         <v>900</v>
@@ -4678,69 +4963,75 @@
         <v>900</v>
       </c>
       <c r="K61" s="3">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="L61" s="3">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="M61" s="3">
         <v>1100</v>
       </c>
       <c r="N61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P61" s="3">
         <v>1700</v>
-      </c>
-      <c r="O61" s="3">
-        <v>1000</v>
-      </c>
-      <c r="P61" s="3">
-        <v>1000</v>
       </c>
       <c r="Q61" s="3">
         <v>1000</v>
       </c>
       <c r="R61" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S61" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T61" s="3">
         <v>4100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>4300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>4400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>4600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>4700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>4900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>7300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>7600</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>7900</v>
       </c>
-      <c r="AA61" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="3">
         <v>8600</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AE61" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
+      <c r="D62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
@@ -4749,44 +5040,44 @@
         <v>0</v>
       </c>
       <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
         <v>300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>400</v>
       </c>
-      <c r="L62" s="3">
-        <v>100</v>
-      </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
       <c r="N62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
         <v>400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>200</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T62" s="3" t="s">
         <v>8</v>
       </c>
@@ -4796,11 +5087,11 @@
       <c r="V62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W62" s="3">
-        <v>0</v>
-      </c>
-      <c r="X62" s="3">
-        <v>0</v>
+      <c r="W62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y62" s="3">
         <v>0</v>
@@ -4817,8 +5108,14 @@
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4900,8 +5197,14 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4983,8 +5286,14 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5066,91 +5375,103 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>23700</v>
+      </c>
+      <c r="F66" s="3">
         <v>24200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>24900</v>
-      </c>
-      <c r="F66" s="3">
-        <v>25100</v>
-      </c>
-      <c r="G66" s="3">
-        <v>26100</v>
       </c>
       <c r="H66" s="3">
         <v>25100</v>
       </c>
       <c r="I66" s="3">
+        <v>26100</v>
+      </c>
+      <c r="J66" s="3">
+        <v>25100</v>
+      </c>
+      <c r="K66" s="3">
         <v>26300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>26300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>26400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>26800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>26800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>27400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>27300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>27900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>28500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>31600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>32600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>33200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>33800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>34500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>36300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>38500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>39700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>40200</v>
       </c>
-      <c r="AA66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD66" s="3">
         <v>43600</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AE66" s="3">
         <v>44400</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5180,8 +5501,10 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5263,8 +5586,14 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5346,8 +5675,14 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5429,8 +5764,14 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5512,91 +5853,103 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>28200</v>
+      </c>
+      <c r="E72" s="3">
         <v>28600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
+        <v>28600</v>
+      </c>
+      <c r="G72" s="3">
         <v>29000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>29700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>30400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>30000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>29800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>29700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>29200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>27900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>27600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>27600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>29200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>28500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>28300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>28200</v>
-      </c>
-      <c r="S72" s="3">
-        <v>28400</v>
-      </c>
-      <c r="T72" s="3">
-        <v>29000</v>
       </c>
       <c r="U72" s="3">
         <v>28400</v>
       </c>
       <c r="V72" s="3">
-        <v>28500</v>
+        <v>29000</v>
       </c>
       <c r="W72" s="3">
         <v>28400</v>
       </c>
       <c r="X72" s="3">
+        <v>28500</v>
+      </c>
+      <c r="Y72" s="3">
+        <v>28400</v>
+      </c>
+      <c r="Z72" s="3">
         <v>29000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>29400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>29400</v>
       </c>
-      <c r="AA72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD72" s="3">
         <v>29300</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AE72" s="3">
         <v>30400</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5678,8 +6031,14 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5761,8 +6120,14 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5844,91 +6209,103 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>27500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>27600</v>
+      </c>
+      <c r="F76" s="3">
         <v>27300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>28500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>30500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>32400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>32000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>32000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>31500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>31300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>29700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>29100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>28100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>31200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>30800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>30000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>29200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>28300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>29400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>29100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>29100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>30000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>30300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>30500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>30000</v>
       </c>
-      <c r="AA76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD76" s="3">
         <v>30900</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AE76" s="3">
         <v>32100</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6010,96 +6387,108 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -6107,82 +6496,88 @@
         <v>-400</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G81" s="3">
         <v>-800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>200</v>
       </c>
-      <c r="I81" s="3">
-        <v>100</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
+        <v>100</v>
+      </c>
+      <c r="L81" s="3">
         <v>400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>1400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-1600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>1100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>300</v>
       </c>
-      <c r="Q81" s="3">
-        <v>100</v>
-      </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
+        <v>100</v>
+      </c>
+      <c r="T81" s="3">
         <v>400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-100</v>
       </c>
-      <c r="V81" s="3">
-        <v>100</v>
-      </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>300</v>
       </c>
-      <c r="Y81" s="3">
-        <v>100</v>
-      </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB81" s="3">
         <v>200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-100</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>700</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AE81" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6212,8 +6607,10 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6221,16 +6618,16 @@
         <v>100</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I83" s="3">
         <v>100</v>
@@ -6278,14 +6675,14 @@
         <v>100</v>
       </c>
       <c r="X83" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z83" s="3">
         <v>200</v>
       </c>
-      <c r="Y83" s="3">
-        <v>100</v>
-      </c>
-      <c r="Z83" s="3">
-        <v>100</v>
-      </c>
       <c r="AA83" s="3">
         <v>100</v>
       </c>
@@ -6295,8 +6692,14 @@
       <c r="AC83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6378,8 +6781,14 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6461,8 +6870,14 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6544,8 +6959,14 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6627,8 +7048,14 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6710,91 +7137,103 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-1200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>1100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-1000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>2400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-1200</v>
-      </c>
-      <c r="W89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="X89" s="3">
-        <v>-500</v>
       </c>
       <c r="Y89" s="3">
         <v>-300</v>
       </c>
       <c r="Z89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AA89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AB89" s="3">
         <v>-2100</v>
-      </c>
-      <c r="AA89" s="3">
-        <v>-400</v>
-      </c>
-      <c r="AB89" s="3">
-        <v>600</v>
       </c>
       <c r="AC89" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3">
+        <v>600</v>
+      </c>
+      <c r="AE89" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6824,8 +7263,10 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6868,29 +7309,29 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
-      <c r="U91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
-      <c r="X91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y91" s="3">
         <v>0</v>
@@ -6905,10 +7346,16 @@
         <v>0</v>
       </c>
       <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6990,8 +7437,14 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7073,91 +7526,103 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>800</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F94" s="3">
         <v>1600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-400</v>
       </c>
-      <c r="G94" s="3">
-        <v>100</v>
-      </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
+        <v>100</v>
+      </c>
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>2000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-500</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>1600</v>
-      </c>
-      <c r="N94" s="3">
-        <v>500</v>
-      </c>
-      <c r="O94" s="3">
-        <v>2000</v>
       </c>
       <c r="P94" s="3">
         <v>500</v>
       </c>
       <c r="Q94" s="3">
+        <v>2000</v>
+      </c>
+      <c r="R94" s="3">
+        <v>500</v>
+      </c>
+      <c r="S94" s="3">
         <v>2900</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>2300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-2300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>4000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>1800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>1100</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>2500</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AD94" s="3">
         <v>1200</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AE94" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7187,8 +7652,10 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7270,8 +7737,14 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7353,8 +7826,14 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7436,8 +7915,14 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7519,8 +8004,14 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7552,58 +8043,64 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>-1300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>700</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>-3100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-2500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>-700</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>-2100</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AE100" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7685,87 +8182,99 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F102" s="3">
         <v>1000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-1600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>1200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-1000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>1600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-500</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>1000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>2300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-1400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>1700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-1800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>1200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-1300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>1600</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>-500</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AE102" s="3">
         <v>-1500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ACMTA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ACMTA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
   <si>
     <t>ACMTA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,226 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3">
         <v>300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>200</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="3">
         <v>900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1500</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q8" s="3">
+      <c r="Q8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R8" s="3">
         <v>1500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1100</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1200</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>700</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>1200</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -912,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="N9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O9" s="3">
         <v>100</v>
@@ -930,10 +937,10 @@
         <v>100</v>
       </c>
       <c r="T9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V9" s="3">
         <v>100</v>
@@ -945,16 +952,16 @@
         <v>100</v>
       </c>
       <c r="Y9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z9" s="3">
         <v>0</v>
       </c>
       <c r="AA9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC9" s="3">
         <v>0</v>
@@ -965,97 +972,103 @@
       <c r="AE9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="3">
         <v>300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>200</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="3">
         <v>900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1400</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R10" s="3">
         <v>1400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>800</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>1200</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>700</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>1200</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1176,8 +1190,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,8 +1282,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1354,8 +1374,11 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1443,8 +1466,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,186 +1499,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>700</v>
+      </c>
+      <c r="E17" s="3">
         <v>800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>800</v>
       </c>
-      <c r="Q17" s="3">
-        <v>100</v>
-      </c>
       <c r="R17" s="3">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="S17" s="3">
         <v>600</v>
       </c>
       <c r="T17" s="3">
+        <v>600</v>
+      </c>
+      <c r="U17" s="3">
         <v>700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>-200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>300</v>
-      </c>
-      <c r="AA17" s="3">
-        <v>900</v>
       </c>
       <c r="AB17" s="3">
         <v>900</v>
       </c>
       <c r="AC17" s="3">
+        <v>900</v>
+      </c>
+      <c r="AD17" s="3">
         <v>800</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>300</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3">
         <v>-500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-500</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="3">
         <v>700</v>
-      </c>
-      <c r="J18" s="3">
-        <v>200</v>
       </c>
       <c r="K18" s="3">
         <v>200</v>
       </c>
       <c r="L18" s="3">
+        <v>200</v>
+      </c>
+      <c r="M18" s="3">
         <v>500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>900</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R18" s="3">
         <v>1400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>700</v>
       </c>
-      <c r="W18" s="3">
-        <v>0</v>
-      </c>
       <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
         <v>200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>300</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-100</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>900</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,13 +1717,14 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1698,14 +1732,14 @@
       <c r="F20" s="3">
         <v>0</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>8</v>
+      <c r="G20" s="3">
+        <v>0</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
+      <c r="I20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -1725,11 +1759,11 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>0</v>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R20" s="3">
         <v>0</v>
@@ -1773,97 +1807,103 @@
       <c r="AE20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3">
         <v>-400</v>
       </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
       <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
         <v>-400</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="3">
         <v>800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>900</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R21" s="3">
         <v>1400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>800</v>
       </c>
-      <c r="W21" s="3">
-        <v>0</v>
-      </c>
       <c r="X21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="3">
         <v>300</v>
       </c>
-      <c r="Y21" s="3">
-        <v>0</v>
-      </c>
       <c r="Z21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="3">
         <v>600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>300</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>400</v>
       </c>
-      <c r="AC21" s="3">
-        <v>0</v>
-      </c>
       <c r="AD21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="3">
         <v>900</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1916,7 +1956,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U22" s="3">
         <v>100</v>
@@ -1951,150 +1991,156 @@
       <c r="AE22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3">
         <v>-500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-500</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-800</v>
       </c>
       <c r="H23" s="3">
         <v>-800</v>
       </c>
       <c r="I23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="J23" s="3">
         <v>700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>200</v>
       </c>
-      <c r="K23" s="3">
-        <v>100</v>
-      </c>
       <c r="L23" s="3">
+        <v>100</v>
+      </c>
+      <c r="M23" s="3">
         <v>500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-100</v>
       </c>
-      <c r="X23" s="3">
-        <v>100</v>
-      </c>
       <c r="Y23" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>400</v>
       </c>
-      <c r="AA23" s="3">
-        <v>100</v>
-      </c>
       <c r="AB23" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC23" s="3">
         <v>200</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-200</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>700</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
       <c r="L24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>100</v>
+      </c>
+      <c r="N24" s="3">
         <v>400</v>
       </c>
-      <c r="N24" s="3">
-        <v>100</v>
-      </c>
       <c r="O24" s="3">
         <v>100</v>
       </c>
       <c r="P24" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>300</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
       <c r="T24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U24" s="3">
         <v>100</v>
@@ -2103,7 +2149,7 @@
         <v>100</v>
       </c>
       <c r="W24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X24" s="3">
         <v>0</v>
@@ -2112,25 +2158,28 @@
         <v>0</v>
       </c>
       <c r="Z24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB24" s="3">
         <v>0</v>
       </c>
       <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="3">
         <v>-100</v>
       </c>
-      <c r="AD24" s="3">
-        <v>0</v>
-      </c>
       <c r="AE24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,186 +2267,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3">
         <v>-400</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>-400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>200</v>
       </c>
-      <c r="K26" s="3">
-        <v>100</v>
-      </c>
       <c r="L26" s="3">
+        <v>100</v>
+      </c>
+      <c r="M26" s="3">
         <v>400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>300</v>
       </c>
-      <c r="S26" s="3">
-        <v>100</v>
-      </c>
       <c r="T26" s="3">
+        <v>100</v>
+      </c>
+      <c r="U26" s="3">
         <v>400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-100</v>
       </c>
-      <c r="X26" s="3">
-        <v>100</v>
-      </c>
       <c r="Y26" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>300</v>
       </c>
-      <c r="AA26" s="3">
-        <v>100</v>
-      </c>
       <c r="AB26" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC26" s="3">
         <v>200</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-100</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>700</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3">
         <v>-400</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>-400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>200</v>
       </c>
-      <c r="K27" s="3">
-        <v>100</v>
-      </c>
       <c r="L27" s="3">
+        <v>100</v>
+      </c>
+      <c r="M27" s="3">
         <v>400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>300</v>
       </c>
-      <c r="S27" s="3">
-        <v>100</v>
-      </c>
       <c r="T27" s="3">
+        <v>100</v>
+      </c>
+      <c r="U27" s="3">
         <v>400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-100</v>
       </c>
-      <c r="X27" s="3">
-        <v>100</v>
-      </c>
       <c r="Y27" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>300</v>
       </c>
-      <c r="AA27" s="3">
-        <v>100</v>
-      </c>
       <c r="AB27" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC27" s="3">
         <v>200</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-100</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>700</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2523,8 +2584,8 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -2541,11 +2602,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2553,11 +2614,11 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>8</v>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,13 +2819,16 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2766,14 +2836,14 @@
       <c r="F32" s="3">
         <v>0</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>8</v>
+      <c r="G32" s="3">
+        <v>0</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
+      <c r="I32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
@@ -2793,11 +2863,11 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>0</v>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R32" s="3">
         <v>0</v>
@@ -2841,97 +2911,103 @@
       <c r="AE32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3">
         <v>-400</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>-400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>200</v>
       </c>
-      <c r="K33" s="3">
-        <v>100</v>
-      </c>
       <c r="L33" s="3">
+        <v>100</v>
+      </c>
+      <c r="M33" s="3">
         <v>400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>300</v>
       </c>
-      <c r="S33" s="3">
-        <v>100</v>
-      </c>
       <c r="T33" s="3">
+        <v>100</v>
+      </c>
+      <c r="U33" s="3">
         <v>400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-100</v>
       </c>
-      <c r="X33" s="3">
-        <v>100</v>
-      </c>
       <c r="Y33" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>300</v>
       </c>
-      <c r="AA33" s="3">
-        <v>100</v>
-      </c>
       <c r="AB33" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC33" s="3">
         <v>200</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-100</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>700</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,191 +3095,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3">
         <v>-400</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>-400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>200</v>
       </c>
-      <c r="K35" s="3">
-        <v>100</v>
-      </c>
       <c r="L35" s="3">
+        <v>100</v>
+      </c>
+      <c r="M35" s="3">
         <v>400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>300</v>
       </c>
-      <c r="S35" s="3">
-        <v>100</v>
-      </c>
       <c r="T35" s="3">
+        <v>100</v>
+      </c>
+      <c r="U35" s="3">
         <v>400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-100</v>
       </c>
-      <c r="X35" s="3">
-        <v>100</v>
-      </c>
       <c r="Y35" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>300</v>
       </c>
-      <c r="AA35" s="3">
-        <v>100</v>
-      </c>
       <c r="AB35" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC35" s="3">
         <v>200</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-100</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>700</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,97 +3354,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>900</v>
+      </c>
+      <c r="E41" s="3">
         <v>1500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1900</v>
-      </c>
-      <c r="O41" s="3">
-        <v>2500</v>
       </c>
       <c r="P41" s="3">
         <v>2500</v>
       </c>
       <c r="Q41" s="3">
+        <v>2500</v>
+      </c>
+      <c r="R41" s="3">
         <v>1500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2800</v>
-      </c>
-      <c r="V41" s="3">
-        <v>1200</v>
       </c>
       <c r="W41" s="3">
         <v>1200</v>
       </c>
       <c r="X41" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Y41" s="3">
         <v>1600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>3400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>2200</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1900</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>2100</v>
       </c>
-      <c r="AC41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD41" s="3">
+      <c r="AD41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE41" s="3">
         <v>1800</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3446,8 +3536,11 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3479,19 +3572,19 @@
         <v>100</v>
       </c>
       <c r="M43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
       </c>
       <c r="O43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P43" s="3">
         <v>100</v>
       </c>
       <c r="Q43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
@@ -3500,13 +3593,13 @@
         <v>0</v>
       </c>
       <c r="T43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W43" s="3">
         <v>100</v>
@@ -3526,17 +3619,20 @@
       <c r="AB43" s="3">
         <v>100</v>
       </c>
-      <c r="AC43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD43" s="3">
+      <c r="AC43" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE43" s="3">
         <v>200</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3624,8 +3720,11 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3713,8 +3812,11 @@
       <c r="AE45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3802,97 +3904,103 @@
       <c r="AE46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>38100</v>
+      </c>
+      <c r="E47" s="3">
         <v>38600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>39500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>38000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>41100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>44300</v>
-      </c>
-      <c r="I47" s="3">
-        <v>45900</v>
       </c>
       <c r="J47" s="3">
         <v>45900</v>
       </c>
       <c r="K47" s="3">
+        <v>45900</v>
+      </c>
+      <c r="L47" s="3">
         <v>46200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>47500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>46900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>45400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>44200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>43800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>48100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>48700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>48400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>50100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>48900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>51700</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>50300</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>50800</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>52100</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>54800</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>56300</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>56200</v>
       </c>
-      <c r="AC47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD47" s="3">
+      <c r="AD47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE47" s="3">
         <v>61300</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>62900</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3900,13 +4008,13 @@
         <v>4100</v>
       </c>
       <c r="E48" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="F48" s="3">
         <v>4200</v>
       </c>
       <c r="G48" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="H48" s="3">
         <v>4300</v>
@@ -3930,7 +4038,7 @@
         <v>4300</v>
       </c>
       <c r="O48" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="P48" s="3">
         <v>4400</v>
@@ -3942,7 +4050,7 @@
         <v>4400</v>
       </c>
       <c r="S48" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="T48" s="3">
         <v>4500</v>
@@ -3951,19 +4059,19 @@
         <v>4500</v>
       </c>
       <c r="V48" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="W48" s="3">
         <v>4600</v>
       </c>
       <c r="X48" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="Y48" s="3">
         <v>4700</v>
       </c>
       <c r="Z48" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="AA48" s="3">
         <v>4800</v>
@@ -3971,17 +4079,20 @@
       <c r="AB48" s="3">
         <v>4800</v>
       </c>
-      <c r="AC48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD48" s="3">
-        <v>5000</v>
+      <c r="AC48" s="3">
+        <v>4800</v>
+      </c>
+      <c r="AD48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AE48" s="3">
         <v>5000</v>
       </c>
-    </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF48" s="3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -4060,17 +4171,20 @@
       <c r="AB49" s="3">
         <v>1900</v>
       </c>
-      <c r="AC49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD49" s="3">
+      <c r="AC49" s="3">
         <v>1900</v>
+      </c>
+      <c r="AD49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AE49" s="3">
         <v>1900</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,28 +4364,31 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E52" s="3">
         <v>600</v>
       </c>
       <c r="F52" s="3">
+        <v>600</v>
+      </c>
+      <c r="G52" s="3">
         <v>800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>500</v>
       </c>
-      <c r="H52" s="3">
-        <v>100</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>8</v>
+      <c r="I52" s="3">
+        <v>100</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>8</v>
@@ -4288,14 +4408,14 @@
       <c r="O52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q52" s="3">
         <v>400</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R52" s="3">
-        <v>0</v>
+      <c r="R52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
@@ -4304,7 +4424,7 @@
         <v>0</v>
       </c>
       <c r="U52" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="V52" s="3">
         <v>300</v>
@@ -4316,28 +4436,31 @@
         <v>300</v>
       </c>
       <c r="Y52" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="Z52" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA52" s="3">
         <v>700</v>
-      </c>
-      <c r="AA52" s="3">
-        <v>900</v>
       </c>
       <c r="AB52" s="3">
         <v>900</v>
       </c>
-      <c r="AC52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD52" s="3">
+      <c r="AC52" s="3">
+        <v>900</v>
+      </c>
+      <c r="AD52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE52" s="3">
         <v>300</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,97 +4548,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>49000</v>
+      </c>
+      <c r="E54" s="3">
         <v>50200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>51300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>51400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>53300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>55600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>58500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>57200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>58300</v>
-      </c>
-      <c r="L54" s="3">
-        <v>57700</v>
       </c>
       <c r="M54" s="3">
         <v>57700</v>
       </c>
       <c r="N54" s="3">
+        <v>57700</v>
+      </c>
+      <c r="O54" s="3">
         <v>56500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>55900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>55500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>58500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>58700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>58400</v>
-      </c>
-      <c r="T54" s="3">
-        <v>60900</v>
       </c>
       <c r="U54" s="3">
         <v>60900</v>
       </c>
       <c r="V54" s="3">
+        <v>60900</v>
+      </c>
+      <c r="W54" s="3">
         <v>62600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>62900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>63600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>66300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>68800</v>
-      </c>
-      <c r="AA54" s="3">
-        <v>70200</v>
       </c>
       <c r="AB54" s="3">
         <v>70200</v>
       </c>
-      <c r="AC54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD54" s="3">
+      <c r="AC54" s="3">
+        <v>70200</v>
+      </c>
+      <c r="AD54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE54" s="3">
         <v>74500</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>76500</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,8 +4710,9 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4589,43 +4720,43 @@
         <v>900</v>
       </c>
       <c r="E57" s="3">
+        <v>900</v>
+      </c>
+      <c r="F57" s="3">
         <v>1100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1100</v>
-      </c>
-      <c r="H57" s="3">
-        <v>1000</v>
       </c>
       <c r="I57" s="3">
         <v>1000</v>
       </c>
       <c r="J57" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="K57" s="3">
         <v>800</v>
       </c>
       <c r="L57" s="3">
+        <v>800</v>
+      </c>
+      <c r="M57" s="3">
         <v>1000</v>
-      </c>
-      <c r="M57" s="3">
-        <v>1100</v>
       </c>
       <c r="N57" s="3">
         <v>1100</v>
       </c>
       <c r="O57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P57" s="3">
         <v>900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>600</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>900</v>
       </c>
       <c r="R57" s="3">
         <v>900</v>
@@ -4637,40 +4768,43 @@
         <v>900</v>
       </c>
       <c r="U57" s="3">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="V57" s="3">
         <v>1200</v>
       </c>
       <c r="W57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="X57" s="3">
         <v>900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1300</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>900</v>
       </c>
-      <c r="AC57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD57" s="3">
+      <c r="AD57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE57" s="3">
         <v>1500</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4758,31 +4892,34 @@
       <c r="AE58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>400</v>
+      </c>
+      <c r="E59" s="3">
         <v>300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>500</v>
-      </c>
-      <c r="G59" s="3">
-        <v>400</v>
       </c>
       <c r="H59" s="3">
         <v>400</v>
       </c>
       <c r="I59" s="3">
+        <v>400</v>
+      </c>
+      <c r="J59" s="3">
         <v>600</v>
-      </c>
-      <c r="J59" s="3">
-        <v>400</v>
       </c>
       <c r="K59" s="3">
         <v>400</v>
@@ -4794,16 +4931,16 @@
         <v>400</v>
       </c>
       <c r="N59" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="O59" s="3">
         <v>500</v>
       </c>
       <c r="P59" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q59" s="3">
         <v>400</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>500</v>
       </c>
       <c r="R59" s="3">
         <v>500</v>
@@ -4812,22 +4949,22 @@
         <v>500</v>
       </c>
       <c r="T59" s="3">
+        <v>500</v>
+      </c>
+      <c r="U59" s="3">
         <v>600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>500</v>
-      </c>
-      <c r="W59" s="3">
-        <v>600</v>
       </c>
       <c r="X59" s="3">
         <v>600</v>
       </c>
       <c r="Y59" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Z59" s="3">
         <v>500</v>
@@ -4836,19 +4973,22 @@
         <v>500</v>
       </c>
       <c r="AB59" s="3">
+        <v>500</v>
+      </c>
+      <c r="AC59" s="3">
         <v>700</v>
       </c>
-      <c r="AC59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD59" s="3">
-        <v>700</v>
+      <c r="AD59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AE59" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF59" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4936,13 +5076,16 @@
       <c r="AE60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
         <v>800</v>
@@ -4957,7 +5100,7 @@
         <v>800</v>
       </c>
       <c r="I61" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="J61" s="3">
         <v>900</v>
@@ -4969,7 +5112,7 @@
         <v>900</v>
       </c>
       <c r="M61" s="3">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="N61" s="3">
         <v>1100</v>
@@ -4978,10 +5121,10 @@
         <v>1100</v>
       </c>
       <c r="P61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q61" s="3">
         <v>1700</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>1000</v>
       </c>
       <c r="R61" s="3">
         <v>1000</v>
@@ -4990,51 +5133,54 @@
         <v>1000</v>
       </c>
       <c r="T61" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U61" s="3">
         <v>4100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>4300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>4400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>4600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>4700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>4900</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>7300</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>7600</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>7900</v>
       </c>
-      <c r="AC61" s="3">
-        <v>0</v>
-      </c>
       <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="3">
         <v>8600</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
+      <c r="E62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
@@ -5046,41 +5192,41 @@
         <v>0</v>
       </c>
       <c r="I62" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="J62" s="3">
         <v>300</v>
       </c>
       <c r="K62" s="3">
+        <v>300</v>
+      </c>
+      <c r="L62" s="3">
         <v>500</v>
-      </c>
-      <c r="L62" s="3">
-        <v>400</v>
       </c>
       <c r="M62" s="3">
         <v>400</v>
       </c>
       <c r="N62" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="O62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
       </c>
       <c r="Q62" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="R62" s="3">
         <v>400</v>
       </c>
       <c r="S62" s="3">
+        <v>400</v>
+      </c>
+      <c r="T62" s="3">
         <v>200</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U62" s="3" t="s">
         <v>8</v>
       </c>
@@ -5093,8 +5239,8 @@
       <c r="X62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y62" s="3">
-        <v>0</v>
+      <c r="Y62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z62" s="3">
         <v>0</v>
@@ -5114,8 +5260,11 @@
       <c r="AE62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,97 +5536,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>22100</v>
+      </c>
+      <c r="E66" s="3">
         <v>22600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>23700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>24200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>24900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>25100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>26100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>25100</v>
-      </c>
-      <c r="K66" s="3">
-        <v>26300</v>
       </c>
       <c r="L66" s="3">
         <v>26300</v>
       </c>
       <c r="M66" s="3">
+        <v>26300</v>
+      </c>
+      <c r="N66" s="3">
         <v>26400</v>
-      </c>
-      <c r="N66" s="3">
-        <v>26800</v>
       </c>
       <c r="O66" s="3">
         <v>26800</v>
       </c>
       <c r="P66" s="3">
+        <v>26800</v>
+      </c>
+      <c r="Q66" s="3">
         <v>27400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>27300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>27900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>28500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>31600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>32600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>33200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>33800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>34500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>36300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>38500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>39700</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>40200</v>
       </c>
-      <c r="AC66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD66" s="3">
+      <c r="AD66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE66" s="3">
         <v>43600</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>44400</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,97 +6030,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>27700</v>
+      </c>
+      <c r="E72" s="3">
         <v>28200</v>
-      </c>
-      <c r="E72" s="3">
-        <v>28600</v>
       </c>
       <c r="F72" s="3">
         <v>28600</v>
       </c>
       <c r="G72" s="3">
+        <v>28600</v>
+      </c>
+      <c r="H72" s="3">
         <v>29000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>29700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>30400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>30000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>29800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>29700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>29200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>27900</v>
-      </c>
-      <c r="O72" s="3">
-        <v>27600</v>
       </c>
       <c r="P72" s="3">
         <v>27600</v>
       </c>
       <c r="Q72" s="3">
+        <v>27600</v>
+      </c>
+      <c r="R72" s="3">
         <v>29200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>28500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>28300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>28200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>28400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>29000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>28400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>28500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>28400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>29000</v>
-      </c>
-      <c r="AA72" s="3">
-        <v>29400</v>
       </c>
       <c r="AB72" s="3">
         <v>29400</v>
       </c>
-      <c r="AC72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD72" s="3">
+      <c r="AC72" s="3">
+        <v>29400</v>
+      </c>
+      <c r="AD72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE72" s="3">
         <v>29300</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>30400</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,97 +6398,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E76" s="3">
         <v>27500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>27600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>27300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>28500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>30500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>32400</v>
-      </c>
-      <c r="J76" s="3">
-        <v>32000</v>
       </c>
       <c r="K76" s="3">
         <v>32000</v>
       </c>
       <c r="L76" s="3">
+        <v>32000</v>
+      </c>
+      <c r="M76" s="3">
         <v>31500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>31300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>29700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>29100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>28100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>31200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>30800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>30000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>29200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>28300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>29400</v>
-      </c>
-      <c r="W76" s="3">
-        <v>29100</v>
       </c>
       <c r="X76" s="3">
         <v>29100</v>
       </c>
       <c r="Y76" s="3">
+        <v>29100</v>
+      </c>
+      <c r="Z76" s="3">
         <v>30000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>30300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>30500</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>30000</v>
       </c>
-      <c r="AC76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD76" s="3">
+      <c r="AD76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE76" s="3">
         <v>30900</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>32100</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,191 +6582,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="3">
         <v>-400</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>-400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>200</v>
       </c>
-      <c r="K81" s="3">
-        <v>100</v>
-      </c>
       <c r="L81" s="3">
+        <v>100</v>
+      </c>
+      <c r="M81" s="3">
         <v>400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>300</v>
       </c>
-      <c r="S81" s="3">
-        <v>100</v>
-      </c>
       <c r="T81" s="3">
+        <v>100</v>
+      </c>
+      <c r="U81" s="3">
         <v>400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-100</v>
       </c>
-      <c r="X81" s="3">
-        <v>100</v>
-      </c>
       <c r="Y81" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>300</v>
       </c>
-      <c r="AA81" s="3">
-        <v>100</v>
-      </c>
       <c r="AB81" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC81" s="3">
         <v>200</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-100</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>700</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,8 +6807,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6624,13 +6823,13 @@
         <v>100</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
       </c>
       <c r="I83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J83" s="3">
         <v>100</v>
@@ -6681,11 +6880,11 @@
         <v>100</v>
       </c>
       <c r="Z83" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA83" s="3">
         <v>200</v>
       </c>
-      <c r="AA83" s="3">
-        <v>100</v>
-      </c>
       <c r="AB83" s="3">
         <v>100</v>
       </c>
@@ -6698,8 +6897,11 @@
       <c r="AE83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,97 +7357,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1100</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>300</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-300</v>
       </c>
       <c r="P89" s="3">
         <v>-300</v>
       </c>
       <c r="Q89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R89" s="3">
         <v>400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-500</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-300</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-2100</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-400</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>600</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,8 +7485,9 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7315,26 +7536,26 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>8</v>
+      <c r="S91" s="3">
+        <v>0</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
+      <c r="U91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>8</v>
+      <c r="W91" s="3">
+        <v>0</v>
       </c>
       <c r="X91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y91" s="3">
-        <v>0</v>
+      <c r="Y91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z91" s="3">
         <v>0</v>
@@ -7352,10 +7573,13 @@
         <v>0</v>
       </c>
       <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,97 +7759,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
         <v>800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>1600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-400</v>
       </c>
-      <c r="I94" s="3">
-        <v>100</v>
-      </c>
       <c r="J94" s="3">
+        <v>100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>2000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-500</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>1600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>2000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>2900</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>2300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>4000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>1800</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>500</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>1100</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>2500</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>1200</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7743,8 +7977,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,13 +8253,16 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -8049,58 +8295,61 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>-1300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>700</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>-3100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-900</v>
-      </c>
-      <c r="V100" s="3">
-        <v>-200</v>
       </c>
       <c r="W100" s="3">
         <v>-200</v>
       </c>
       <c r="X100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y100" s="3">
         <v>-300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-2500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-400</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-300</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-700</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-2100</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8188,93 +8437,99 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-500</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>1000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>1200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-200</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-1300</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>1600</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-500</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>-1500</v>
       </c>
     </row>
